--- a/output/OUTPUT5_A04.xlsx
+++ b/output/OUTPUT5_A04.xlsx
@@ -170,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -226,11 +226,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -246,19 +246,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -268,9 +262,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -678,9 +669,9 @@
   </sheetPr>
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C30" sqref="C30:AD30"/>
+      <selection pane="topRight" activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -801,276 +792,244 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>04021G</t>
+          <t>04272G</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>04022G</t>
+          <t>04271G</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>04041G</t>
+          <t>04252G</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
-          <t>04042G</t>
+          <t>04251G</t>
         </is>
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>04061G</t>
+          <t>04232G</t>
         </is>
       </c>
       <c r="H2" s="7" t="inlineStr">
         <is>
-          <t>04062G</t>
+          <t>04231G</t>
         </is>
       </c>
       <c r="I2" s="7" t="inlineStr">
         <is>
-          <t>04081G</t>
+          <t>04212G</t>
         </is>
       </c>
       <c r="J2" s="7" t="inlineStr">
         <is>
-          <t>04082G</t>
+          <t>04211G</t>
         </is>
       </c>
       <c r="K2" s="7" t="inlineStr">
         <is>
-          <t>04101G</t>
+          <t>04192G</t>
         </is>
       </c>
       <c r="L2" s="7" t="inlineStr">
         <is>
-          <t>04102G</t>
+          <t>04191G</t>
         </is>
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
-          <t>04121G</t>
+          <t>04172G</t>
         </is>
       </c>
       <c r="N2" s="7" t="inlineStr">
         <is>
-          <t>04122G</t>
+          <t>04171G</t>
         </is>
       </c>
       <c r="O2" s="7" t="inlineStr">
         <is>
-          <t>04141G</t>
+          <t>04152G</t>
         </is>
       </c>
       <c r="P2" s="7" t="inlineStr">
         <is>
-          <t>04142G</t>
+          <t>04151G</t>
         </is>
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>04161G</t>
+          <t>04132G</t>
         </is>
       </c>
       <c r="R2" s="7" t="inlineStr">
         <is>
-          <t>04162G</t>
+          <t>04131G</t>
         </is>
       </c>
       <c r="S2" s="7" t="inlineStr">
         <is>
-          <t>04181G</t>
+          <t>04112G</t>
         </is>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
-          <t>04182G</t>
+          <t>04111G</t>
         </is>
       </c>
       <c r="U2" s="7" t="inlineStr">
         <is>
-          <t>04204G</t>
+          <t>04092G</t>
         </is>
       </c>
       <c r="V2" s="7" t="inlineStr">
         <is>
-          <t>04204G</t>
+          <t>04091G</t>
         </is>
       </c>
       <c r="W2" s="7" t="inlineStr">
         <is>
-          <t>04221G</t>
+          <t>04072G</t>
         </is>
       </c>
       <c r="X2" s="7" t="inlineStr">
         <is>
-          <t>04222G</t>
+          <t>04071G</t>
         </is>
       </c>
       <c r="Y2" s="7" t="inlineStr">
         <is>
-          <t>04241G</t>
+          <t>04052G</t>
         </is>
       </c>
       <c r="Z2" s="7" t="inlineStr">
         <is>
-          <t>04242G</t>
+          <t>04051G</t>
         </is>
       </c>
       <c r="AA2" s="7" t="inlineStr">
         <is>
-          <t>04261G</t>
+          <t>04032G</t>
         </is>
       </c>
       <c r="AB2" s="7" t="inlineStr">
         <is>
-          <t>04262G</t>
+          <t>04031G</t>
         </is>
       </c>
       <c r="AC2" s="7" t="inlineStr">
         <is>
-          <t>04281G</t>
+          <t>04012G</t>
         </is>
       </c>
       <c r="AD2" s="7" t="inlineStr">
         <is>
-          <t>04282G</t>
+          <t>04011G</t>
         </is>
       </c>
     </row>
     <row r="3" ht="35" customHeight="1">
-      <c r="A3" s="32" t="n"/>
-      <c r="B3" s="32" t="n"/>
-      <c r="C3" s="33" t="inlineStr">
-        <is>
-          <t>B1007212-</t>
-        </is>
-      </c>
-      <c r="D3" s="33" t="inlineStr">
-        <is>
-          <t>t2000230-</t>
-        </is>
-      </c>
-      <c r="E3" s="33" t="inlineStr">
-        <is>
-          <t>B2000856-</t>
-        </is>
-      </c>
-      <c r="F3" s="34" t="inlineStr">
-        <is>
-          <t>b1005421-</t>
-        </is>
-      </c>
-      <c r="G3" s="34" t="n"/>
-      <c r="H3" s="34" t="inlineStr">
-        <is>
-          <t>P1210029-</t>
-        </is>
-      </c>
-      <c r="I3" s="34" t="inlineStr">
-        <is>
-          <t>m1012547-</t>
-        </is>
-      </c>
-      <c r="J3" s="34" t="inlineStr">
-        <is>
-          <t>B2000481-</t>
-        </is>
-      </c>
-      <c r="K3" s="34" t="inlineStr">
-        <is>
-          <t>B1004004-</t>
-        </is>
-      </c>
-      <c r="L3" s="34" t="inlineStr">
-        <is>
-          <t>B1008511-</t>
-        </is>
-      </c>
-      <c r="M3" s="34" t="inlineStr">
-        <is>
-          <t>b1004774-</t>
-        </is>
-      </c>
-      <c r="N3" s="34" t="inlineStr">
-        <is>
-          <t>B2000973-</t>
-        </is>
-      </c>
-      <c r="O3" s="34" t="inlineStr">
-        <is>
-          <t>B1007096-</t>
-        </is>
-      </c>
-      <c r="P3" s="34" t="inlineStr">
-        <is>
-          <t>M1012925-</t>
-        </is>
-      </c>
-      <c r="Q3" s="34" t="inlineStr">
-        <is>
-          <t>p1230884-</t>
-        </is>
-      </c>
-      <c r="R3" s="34" t="inlineStr">
-        <is>
-          <t>B1000173-</t>
-        </is>
-      </c>
-      <c r="S3" s="34" t="inlineStr">
-        <is>
-          <t>B2010290-</t>
-        </is>
-      </c>
-      <c r="T3" s="34" t="inlineStr">
-        <is>
-          <t>B1004699-</t>
-        </is>
-      </c>
-      <c r="U3" s="34" t="n"/>
-      <c r="V3" s="34" t="n"/>
-      <c r="W3" s="34" t="inlineStr">
-        <is>
-          <t>B1000152-</t>
-        </is>
-      </c>
-      <c r="X3" s="34" t="inlineStr">
-        <is>
-          <t>B1001256-</t>
-        </is>
-      </c>
-      <c r="Y3" s="34" t="inlineStr">
-        <is>
-          <t>B2010841-</t>
-        </is>
-      </c>
-      <c r="Z3" s="34" t="inlineStr">
-        <is>
-          <t>B1004247-</t>
-        </is>
-      </c>
-      <c r="AA3" s="34" t="inlineStr">
-        <is>
-          <t>b1000248-</t>
-        </is>
-      </c>
-      <c r="AB3" s="34" t="inlineStr">
-        <is>
-          <t>b1004426-</t>
-        </is>
-      </c>
-      <c r="AC3" s="34" t="inlineStr">
-        <is>
-          <t>B2000695-</t>
-        </is>
-      </c>
-      <c r="AD3" s="34" t="inlineStr">
-        <is>
-          <t>B1006215-</t>
-        </is>
-      </c>
+      <c r="A3" s="30" t="n"/>
+      <c r="B3" s="30" t="n"/>
+      <c r="C3" s="31" t="inlineStr">
+        <is>
+          <t>T2001527-</t>
+        </is>
+      </c>
+      <c r="D3" s="31" t="inlineStr">
+        <is>
+          <t>B1008786-</t>
+        </is>
+      </c>
+      <c r="E3" s="31" t="inlineStr">
+        <is>
+          <t>B1005273-</t>
+        </is>
+      </c>
+      <c r="F3" s="32" t="n"/>
+      <c r="G3" s="32" t="inlineStr">
+        <is>
+          <t>b1005469-</t>
+        </is>
+      </c>
+      <c r="H3" s="32" t="inlineStr">
+        <is>
+          <t>P1227869-</t>
+        </is>
+      </c>
+      <c r="I3" s="32" t="inlineStr">
+        <is>
+          <t>B1009157-</t>
+        </is>
+      </c>
+      <c r="J3" s="32" t="inlineStr">
+        <is>
+          <t>B1005971-</t>
+        </is>
+      </c>
+      <c r="K3" s="32" t="n"/>
+      <c r="L3" s="32" t="n"/>
+      <c r="M3" s="32" t="n"/>
+      <c r="N3" s="32" t="n"/>
+      <c r="O3" s="32" t="inlineStr">
+        <is>
+          <t>P1213656-</t>
+        </is>
+      </c>
+      <c r="P3" s="32" t="n"/>
+      <c r="Q3" s="32" t="n"/>
+      <c r="R3" s="32" t="inlineStr">
+        <is>
+          <t>B1009242-</t>
+        </is>
+      </c>
+      <c r="S3" s="32" t="inlineStr">
+        <is>
+          <t>B2010289-</t>
+        </is>
+      </c>
+      <c r="T3" s="32" t="inlineStr">
+        <is>
+          <t>B2000876-</t>
+        </is>
+      </c>
+      <c r="U3" s="32" t="inlineStr">
+        <is>
+          <t>b1007527-</t>
+        </is>
+      </c>
+      <c r="V3" s="32" t="inlineStr">
+        <is>
+          <t>P1231997-</t>
+        </is>
+      </c>
+      <c r="W3" s="32" t="inlineStr">
+        <is>
+          <t>B2000647-</t>
+        </is>
+      </c>
+      <c r="X3" s="32" t="n"/>
+      <c r="Y3" s="32" t="inlineStr">
+        <is>
+          <t>b1008300-</t>
+        </is>
+      </c>
+      <c r="Z3" s="32" t="n"/>
+      <c r="AA3" s="32" t="inlineStr">
+        <is>
+          <t>b1004429-</t>
+        </is>
+      </c>
+      <c r="AB3" s="32" t="inlineStr">
+        <is>
+          <t>B1008217-</t>
+        </is>
+      </c>
+      <c r="AC3" s="32" t="n"/>
+      <c r="AD3" s="32" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="22" t="n"/>
@@ -1081,279 +1040,286 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>04021F</t>
+          <t>04272F</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>04022F</t>
+          <t>04271F</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>04041F</t>
+          <t>04252F</t>
         </is>
       </c>
       <c r="F4" s="7" t="inlineStr">
         <is>
-          <t>04042F</t>
+          <t>04251F</t>
         </is>
       </c>
       <c r="G4" s="7" t="inlineStr">
         <is>
-          <t>04061F</t>
+          <t>04232F</t>
         </is>
       </c>
       <c r="H4" s="7" t="inlineStr">
         <is>
-          <t>04062F</t>
+          <t>04231F</t>
         </is>
       </c>
       <c r="I4" s="7" t="inlineStr">
         <is>
-          <t>04081F</t>
+          <t>04212F</t>
         </is>
       </c>
       <c r="J4" s="7" t="inlineStr">
         <is>
-          <t>04082F</t>
+          <t>04211F</t>
         </is>
       </c>
       <c r="K4" s="7" t="inlineStr">
         <is>
-          <t>04101F</t>
+          <t>04192F</t>
         </is>
       </c>
       <c r="L4" s="7" t="inlineStr">
         <is>
-          <t>04102F</t>
+          <t>04191F</t>
         </is>
       </c>
       <c r="M4" s="7" t="inlineStr">
         <is>
-          <t>04121F</t>
+          <t>04172F</t>
         </is>
       </c>
       <c r="N4" s="7" t="inlineStr">
         <is>
-          <t>04122F</t>
+          <t>04171F</t>
         </is>
       </c>
       <c r="O4" s="7" t="inlineStr">
         <is>
-          <t>04141F</t>
+          <t>04152F</t>
         </is>
       </c>
       <c r="P4" s="7" t="inlineStr">
         <is>
-          <t>04142F</t>
+          <t>04151F</t>
         </is>
       </c>
       <c r="Q4" s="7" t="inlineStr">
         <is>
-          <t>04161F</t>
+          <t>04132F</t>
         </is>
       </c>
       <c r="R4" s="7" t="inlineStr">
         <is>
-          <t>04162F</t>
+          <t>04131F</t>
         </is>
       </c>
       <c r="S4" s="7" t="inlineStr">
         <is>
-          <t>04181F</t>
+          <t>04112F</t>
         </is>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
-          <t>04182F</t>
+          <t>04111F</t>
         </is>
       </c>
       <c r="U4" s="7" t="inlineStr">
         <is>
-          <t>04204F</t>
+          <t>04092F</t>
         </is>
       </c>
       <c r="V4" s="7" t="inlineStr">
         <is>
-          <t>04204F</t>
+          <t>04091F</t>
         </is>
       </c>
       <c r="W4" s="7" t="inlineStr">
         <is>
-          <t>04221F</t>
+          <t>04072F</t>
         </is>
       </c>
       <c r="X4" s="7" t="inlineStr">
         <is>
-          <t>04222F</t>
+          <t>04071F</t>
         </is>
       </c>
       <c r="Y4" s="7" t="inlineStr">
         <is>
-          <t>04241F</t>
+          <t>04052F</t>
         </is>
       </c>
       <c r="Z4" s="7" t="inlineStr">
         <is>
-          <t>04242F</t>
+          <t>04051F</t>
         </is>
       </c>
       <c r="AA4" s="7" t="inlineStr">
         <is>
-          <t>04261F</t>
+          <t>04032F</t>
         </is>
       </c>
       <c r="AB4" s="7" t="inlineStr">
         <is>
-          <t>04262F</t>
+          <t>04031F</t>
         </is>
       </c>
       <c r="AC4" s="7" t="inlineStr">
         <is>
-          <t>04281F</t>
+          <t>04012F</t>
         </is>
       </c>
       <c r="AD4" s="7" t="inlineStr">
         <is>
-          <t>04282F</t>
+          <t>04011F</t>
         </is>
       </c>
     </row>
     <row r="5" ht="35" customHeight="1">
-      <c r="A5" s="32" t="n"/>
-      <c r="B5" s="32" t="n"/>
-      <c r="C5" s="33" t="inlineStr">
-        <is>
-          <t>B2011279-</t>
-        </is>
-      </c>
-      <c r="D5" s="33" t="inlineStr">
-        <is>
-          <t>b1006187-</t>
-        </is>
-      </c>
-      <c r="E5" s="33" t="inlineStr">
-        <is>
-          <t>t2000031-</t>
-        </is>
-      </c>
-      <c r="F5" s="34" t="inlineStr">
-        <is>
-          <t>B2010266-</t>
-        </is>
-      </c>
-      <c r="G5" s="34" t="inlineStr">
-        <is>
-          <t>B2000502-</t>
-        </is>
-      </c>
-      <c r="H5" s="34" t="inlineStr">
-        <is>
-          <t>B2009941-</t>
-        </is>
-      </c>
-      <c r="I5" s="34" t="inlineStr">
-        <is>
-          <t>b1004077-</t>
-        </is>
-      </c>
-      <c r="J5" s="34" t="inlineStr">
-        <is>
-          <t>B1007897-</t>
-        </is>
-      </c>
-      <c r="K5" s="34" t="inlineStr">
-        <is>
-          <t>B2000629-</t>
-        </is>
-      </c>
-      <c r="L5" s="34" t="inlineStr">
-        <is>
-          <t>B1007624-</t>
-        </is>
-      </c>
-      <c r="M5" s="34" t="inlineStr">
-        <is>
-          <t>m1013356-</t>
-        </is>
-      </c>
-      <c r="N5" s="35" t="inlineStr">
-        <is>
-          <t>B2011234-
-b1007845-</t>
-        </is>
-      </c>
-      <c r="O5" s="34" t="inlineStr">
-        <is>
-          <t>B1009052-</t>
-        </is>
-      </c>
-      <c r="P5" s="34" t="inlineStr">
-        <is>
-          <t>B2010568-</t>
-        </is>
-      </c>
-      <c r="Q5" s="34" t="inlineStr">
-        <is>
-          <t>B1007282-</t>
-        </is>
-      </c>
-      <c r="R5" s="34" t="inlineStr">
-        <is>
-          <t>B1008636-</t>
-        </is>
-      </c>
-      <c r="S5" s="34" t="inlineStr">
-        <is>
-          <t>B1009172-</t>
-        </is>
-      </c>
-      <c r="T5" s="34" t="inlineStr">
-        <is>
-          <t>B1006365-</t>
-        </is>
-      </c>
-      <c r="U5" s="34" t="n"/>
-      <c r="V5" s="34" t="n"/>
-      <c r="W5" s="34" t="inlineStr">
-        <is>
-          <t>T2001855-</t>
-        </is>
-      </c>
-      <c r="X5" s="34" t="inlineStr">
-        <is>
-          <t>B1007231-</t>
-        </is>
-      </c>
-      <c r="Y5" s="34" t="inlineStr">
-        <is>
-          <t>B2000631-</t>
-        </is>
-      </c>
-      <c r="Z5" s="34" t="inlineStr">
-        <is>
-          <t>B2011389-</t>
-        </is>
-      </c>
-      <c r="AA5" s="34" t="inlineStr">
-        <is>
-          <t>B1007275-</t>
-        </is>
-      </c>
-      <c r="AB5" s="34" t="inlineStr">
-        <is>
-          <t>B1007448-</t>
-        </is>
-      </c>
-      <c r="AC5" s="34" t="inlineStr">
-        <is>
-          <t>B2010330-</t>
-        </is>
-      </c>
-      <c r="AD5" s="34" t="inlineStr">
-        <is>
-          <t>B1007899-</t>
+      <c r="A5" s="30" t="n"/>
+      <c r="B5" s="30" t="n"/>
+      <c r="C5" s="31" t="inlineStr">
+        <is>
+          <t>B2011307-</t>
+        </is>
+      </c>
+      <c r="D5" s="31" t="inlineStr">
+        <is>
+          <t>B2012215-</t>
+        </is>
+      </c>
+      <c r="E5" s="31" t="inlineStr">
+        <is>
+          <t>b2009969-</t>
+        </is>
+      </c>
+      <c r="F5" s="32" t="inlineStr">
+        <is>
+          <t>W1000016-</t>
+        </is>
+      </c>
+      <c r="G5" s="32" t="inlineStr">
+        <is>
+          <t>b1005844-</t>
+        </is>
+      </c>
+      <c r="H5" s="32" t="inlineStr">
+        <is>
+          <t>B2000948-</t>
+        </is>
+      </c>
+      <c r="I5" s="32" t="inlineStr">
+        <is>
+          <t>t2002841-</t>
+        </is>
+      </c>
+      <c r="J5" s="32" t="inlineStr">
+        <is>
+          <t>b1005571-</t>
+        </is>
+      </c>
+      <c r="K5" s="32" t="inlineStr">
+        <is>
+          <t>T1001083-</t>
+        </is>
+      </c>
+      <c r="L5" s="32" t="inlineStr">
+        <is>
+          <t>B2011448-</t>
+        </is>
+      </c>
+      <c r="M5" s="32" t="inlineStr">
+        <is>
+          <t>B2010489-</t>
+        </is>
+      </c>
+      <c r="N5" s="32" t="inlineStr">
+        <is>
+          <t>B2010798-</t>
+        </is>
+      </c>
+      <c r="O5" s="32" t="inlineStr">
+        <is>
+          <t>X1000218-</t>
+        </is>
+      </c>
+      <c r="P5" s="32" t="inlineStr">
+        <is>
+          <t>B1006042-</t>
+        </is>
+      </c>
+      <c r="Q5" s="32" t="inlineStr">
+        <is>
+          <t>b1007399-</t>
+        </is>
+      </c>
+      <c r="R5" s="32" t="inlineStr">
+        <is>
+          <t>B1005011-</t>
+        </is>
+      </c>
+      <c r="S5" s="32" t="inlineStr">
+        <is>
+          <t>B2011481-</t>
+        </is>
+      </c>
+      <c r="T5" s="32" t="inlineStr">
+        <is>
+          <t>B1004849-</t>
+        </is>
+      </c>
+      <c r="U5" s="32" t="inlineStr">
+        <is>
+          <t>P1058583-</t>
+        </is>
+      </c>
+      <c r="V5" s="32" t="inlineStr">
+        <is>
+          <t>b2000738-</t>
+        </is>
+      </c>
+      <c r="W5" s="32" t="inlineStr">
+        <is>
+          <t>B2011274-</t>
+        </is>
+      </c>
+      <c r="X5" s="32" t="inlineStr">
+        <is>
+          <t>B1005811-</t>
+        </is>
+      </c>
+      <c r="Y5" s="32" t="inlineStr">
+        <is>
+          <t>B2010433-</t>
+        </is>
+      </c>
+      <c r="Z5" s="32" t="inlineStr">
+        <is>
+          <t>B2011480-</t>
+        </is>
+      </c>
+      <c r="AA5" s="32" t="inlineStr">
+        <is>
+          <t>B2011452-</t>
+        </is>
+      </c>
+      <c r="AB5" s="32" t="inlineStr">
+        <is>
+          <t>B2011275-</t>
+        </is>
+      </c>
+      <c r="AC5" s="32" t="inlineStr">
+        <is>
+          <t>B1007276-</t>
+        </is>
+      </c>
+      <c r="AD5" s="32" t="inlineStr">
+        <is>
+          <t>B2000797-</t>
         </is>
       </c>
     </row>
@@ -1366,272 +1332,286 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>04021E</t>
+          <t>04272E</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>04022E</t>
+          <t>04271E</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>04041E</t>
+          <t>04252E</t>
         </is>
       </c>
       <c r="F6" s="7" t="inlineStr">
         <is>
-          <t>04042E</t>
+          <t>04251E</t>
         </is>
       </c>
       <c r="G6" s="7" t="inlineStr">
         <is>
-          <t>04061E</t>
+          <t>04232E</t>
         </is>
       </c>
       <c r="H6" s="7" t="inlineStr">
         <is>
-          <t>04062E</t>
+          <t>04231E</t>
         </is>
       </c>
       <c r="I6" s="7" t="inlineStr">
         <is>
-          <t>04081E</t>
+          <t>04212E</t>
         </is>
       </c>
       <c r="J6" s="7" t="inlineStr">
         <is>
-          <t>04082E</t>
+          <t>04211E</t>
         </is>
       </c>
       <c r="K6" s="7" t="inlineStr">
         <is>
-          <t>04101E</t>
+          <t>04192E</t>
         </is>
       </c>
       <c r="L6" s="7" t="inlineStr">
         <is>
-          <t>04102E</t>
+          <t>04191E</t>
         </is>
       </c>
       <c r="M6" s="7" t="inlineStr">
         <is>
-          <t>04121E</t>
+          <t>04172E</t>
         </is>
       </c>
       <c r="N6" s="7" t="inlineStr">
         <is>
-          <t>04122E</t>
+          <t>04171E</t>
         </is>
       </c>
       <c r="O6" s="7" t="inlineStr">
         <is>
-          <t>04141E</t>
+          <t>04152E</t>
         </is>
       </c>
       <c r="P6" s="7" t="inlineStr">
         <is>
-          <t>04142E</t>
+          <t>04151E</t>
         </is>
       </c>
       <c r="Q6" s="7" t="inlineStr">
         <is>
-          <t>04161E</t>
+          <t>04132E</t>
         </is>
       </c>
       <c r="R6" s="7" t="inlineStr">
         <is>
-          <t>04162E</t>
+          <t>04131E</t>
         </is>
       </c>
       <c r="S6" s="7" t="inlineStr">
         <is>
-          <t>04181E</t>
+          <t>04112E</t>
         </is>
       </c>
       <c r="T6" s="7" t="inlineStr">
         <is>
-          <t>04182E</t>
+          <t>04111E</t>
         </is>
       </c>
       <c r="U6" s="7" t="inlineStr">
         <is>
-          <t>04204E</t>
+          <t>04092E</t>
         </is>
       </c>
       <c r="V6" s="7" t="inlineStr">
         <is>
-          <t>04204E</t>
+          <t>04091E</t>
         </is>
       </c>
       <c r="W6" s="7" t="inlineStr">
         <is>
-          <t>04221E</t>
+          <t>04072E</t>
         </is>
       </c>
       <c r="X6" s="7" t="inlineStr">
         <is>
-          <t>04222E</t>
+          <t>04071E</t>
         </is>
       </c>
       <c r="Y6" s="7" t="inlineStr">
         <is>
-          <t>04241E</t>
+          <t>04052E</t>
         </is>
       </c>
       <c r="Z6" s="7" t="inlineStr">
         <is>
-          <t>04242E</t>
+          <t>04051E</t>
         </is>
       </c>
       <c r="AA6" s="7" t="inlineStr">
         <is>
-          <t>04261E</t>
+          <t>04032E</t>
         </is>
       </c>
       <c r="AB6" s="7" t="inlineStr">
         <is>
-          <t>04262E</t>
+          <t>04031E</t>
         </is>
       </c>
       <c r="AC6" s="7" t="inlineStr">
         <is>
-          <t>04281E</t>
+          <t>04012E</t>
         </is>
       </c>
       <c r="AD6" s="7" t="inlineStr">
         <is>
-          <t>04282E</t>
+          <t>04011E</t>
         </is>
       </c>
     </row>
     <row r="7" ht="35" customHeight="1">
-      <c r="A7" s="32" t="n"/>
-      <c r="B7" s="32" t="n"/>
-      <c r="C7" s="33" t="inlineStr">
-        <is>
-          <t>B2011277-</t>
-        </is>
-      </c>
-      <c r="D7" s="33" t="inlineStr">
-        <is>
-          <t>b2010650-</t>
-        </is>
-      </c>
-      <c r="E7" s="33" t="inlineStr">
-        <is>
-          <t>T2000029-</t>
-        </is>
-      </c>
-      <c r="F7" s="34" t="inlineStr">
-        <is>
-          <t>B1005364-</t>
-        </is>
-      </c>
-      <c r="G7" s="34" t="inlineStr">
-        <is>
-          <t>T2002344-</t>
-        </is>
-      </c>
-      <c r="H7" s="34" t="inlineStr">
-        <is>
-          <t>B2011281-</t>
-        </is>
-      </c>
-      <c r="I7" s="34" t="inlineStr">
-        <is>
-          <t>T2001845-</t>
-        </is>
-      </c>
-      <c r="J7" s="34" t="inlineStr">
-        <is>
-          <t>E1000191-</t>
-        </is>
-      </c>
-      <c r="K7" s="34" t="inlineStr">
-        <is>
-          <t>B1000178-</t>
-        </is>
-      </c>
-      <c r="L7" s="34" t="inlineStr">
-        <is>
-          <t>B1006634-</t>
-        </is>
-      </c>
-      <c r="M7" s="34" t="inlineStr">
-        <is>
-          <t>B2009996-</t>
-        </is>
-      </c>
-      <c r="N7" s="34" t="inlineStr">
-        <is>
-          <t>t2001510-</t>
-        </is>
-      </c>
-      <c r="O7" s="34" t="inlineStr">
-        <is>
-          <t>B2010541-</t>
-        </is>
-      </c>
-      <c r="P7" s="34" t="inlineStr">
-        <is>
-          <t>b1004654-</t>
-        </is>
-      </c>
-      <c r="Q7" s="34" t="n"/>
-      <c r="R7" s="35" t="inlineStr">
-        <is>
-          <t>B2010476-
-t1000127-</t>
-        </is>
-      </c>
-      <c r="S7" s="34" t="inlineStr">
-        <is>
-          <t>B1006210-</t>
-        </is>
-      </c>
-      <c r="T7" s="34" t="inlineStr">
-        <is>
-          <t>M1016609-</t>
-        </is>
-      </c>
-      <c r="U7" s="34" t="n"/>
-      <c r="V7" s="34" t="n"/>
-      <c r="W7" s="35" t="inlineStr">
-        <is>
-          <t>B2000487-
-B2011236-</t>
-        </is>
-      </c>
-      <c r="X7" s="34" t="inlineStr">
-        <is>
-          <t>B1007281-</t>
-        </is>
-      </c>
-      <c r="Y7" s="34" t="n"/>
-      <c r="Z7" s="34" t="inlineStr">
-        <is>
-          <t>B2011393-</t>
-        </is>
-      </c>
-      <c r="AA7" s="34" t="inlineStr">
-        <is>
-          <t>B2000123-</t>
-        </is>
-      </c>
-      <c r="AB7" s="34" t="inlineStr">
-        <is>
-          <t>b2010920-</t>
-        </is>
-      </c>
-      <c r="AC7" s="34" t="inlineStr">
-        <is>
-          <t>B2010611-</t>
-        </is>
-      </c>
-      <c r="AD7" s="34" t="inlineStr">
-        <is>
-          <t>B2000484-</t>
+      <c r="A7" s="30" t="n"/>
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="31" t="inlineStr">
+        <is>
+          <t>B1007406-</t>
+        </is>
+      </c>
+      <c r="D7" s="31" t="inlineStr">
+        <is>
+          <t>B2010954-</t>
+        </is>
+      </c>
+      <c r="E7" s="31" t="inlineStr">
+        <is>
+          <t>B2010545-</t>
+        </is>
+      </c>
+      <c r="F7" s="32" t="inlineStr">
+        <is>
+          <t>B1008699-</t>
+        </is>
+      </c>
+      <c r="G7" s="32" t="inlineStr">
+        <is>
+          <t>T2002990-</t>
+        </is>
+      </c>
+      <c r="H7" s="32" t="inlineStr">
+        <is>
+          <t>B1004564-</t>
+        </is>
+      </c>
+      <c r="I7" s="32" t="inlineStr">
+        <is>
+          <t>B2012243-</t>
+        </is>
+      </c>
+      <c r="J7" s="32" t="inlineStr">
+        <is>
+          <t>B2000487-</t>
+        </is>
+      </c>
+      <c r="K7" s="32" t="inlineStr">
+        <is>
+          <t>B2000622-</t>
+        </is>
+      </c>
+      <c r="L7" s="32" t="inlineStr">
+        <is>
+          <t>b2000497-</t>
+        </is>
+      </c>
+      <c r="M7" s="32" t="inlineStr">
+        <is>
+          <t>B1008911-</t>
+        </is>
+      </c>
+      <c r="N7" s="32" t="inlineStr">
+        <is>
+          <t>T2001758-</t>
+        </is>
+      </c>
+      <c r="O7" s="32" t="inlineStr">
+        <is>
+          <t>B2010741-</t>
+        </is>
+      </c>
+      <c r="P7" s="32" t="inlineStr">
+        <is>
+          <t>B2011510-</t>
+        </is>
+      </c>
+      <c r="Q7" s="32" t="inlineStr">
+        <is>
+          <t>t2001470-</t>
+        </is>
+      </c>
+      <c r="R7" s="32" t="inlineStr">
+        <is>
+          <t>p1229487-</t>
+        </is>
+      </c>
+      <c r="S7" s="32" t="inlineStr">
+        <is>
+          <t>B1004700-</t>
+        </is>
+      </c>
+      <c r="T7" s="32" t="inlineStr">
+        <is>
+          <t>B2011388-</t>
+        </is>
+      </c>
+      <c r="U7" s="32" t="inlineStr">
+        <is>
+          <t>M1016846-</t>
+        </is>
+      </c>
+      <c r="V7" s="32" t="inlineStr">
+        <is>
+          <t>B2012245-</t>
+        </is>
+      </c>
+      <c r="W7" s="32" t="inlineStr">
+        <is>
+          <t>B2009906-</t>
+        </is>
+      </c>
+      <c r="X7" s="32" t="inlineStr">
+        <is>
+          <t>X1000301-</t>
+        </is>
+      </c>
+      <c r="Y7" s="32" t="inlineStr">
+        <is>
+          <t>B1006174-</t>
+        </is>
+      </c>
+      <c r="Z7" s="32" t="inlineStr">
+        <is>
+          <t>B1008662-</t>
+        </is>
+      </c>
+      <c r="AA7" s="32" t="inlineStr">
+        <is>
+          <t>B1005024-</t>
+        </is>
+      </c>
+      <c r="AB7" s="32" t="inlineStr">
+        <is>
+          <t>t2001182-</t>
+        </is>
+      </c>
+      <c r="AC7" s="32" t="inlineStr">
+        <is>
+          <t>B2011271-</t>
+        </is>
+      </c>
+      <c r="AD7" s="32" t="inlineStr">
+        <is>
+          <t>B2011282-</t>
         </is>
       </c>
     </row>
@@ -1644,274 +1624,286 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>04021D</t>
+          <t>04272D</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>04022D</t>
+          <t>04271D</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>04041D</t>
+          <t>04252D</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr">
         <is>
-          <t>04042D</t>
+          <t>04251D</t>
         </is>
       </c>
       <c r="G8" s="7" t="inlineStr">
         <is>
-          <t>04061D</t>
+          <t>04232D</t>
         </is>
       </c>
       <c r="H8" s="7" t="inlineStr">
         <is>
-          <t>04062D</t>
+          <t>04231D</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr">
         <is>
-          <t>04081D</t>
+          <t>04212D</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr">
         <is>
-          <t>04082D</t>
+          <t>04211D</t>
         </is>
       </c>
       <c r="K8" s="7" t="inlineStr">
         <is>
-          <t>04101D</t>
+          <t>04192D</t>
         </is>
       </c>
       <c r="L8" s="7" t="inlineStr">
         <is>
-          <t>04102D</t>
+          <t>04191D</t>
         </is>
       </c>
       <c r="M8" s="7" t="inlineStr">
         <is>
-          <t>04121D</t>
+          <t>04172D</t>
         </is>
       </c>
       <c r="N8" s="7" t="inlineStr">
         <is>
-          <t>04122D</t>
+          <t>04171D</t>
         </is>
       </c>
       <c r="O8" s="7" t="inlineStr">
         <is>
-          <t>04141D</t>
+          <t>04152D</t>
         </is>
       </c>
       <c r="P8" s="7" t="inlineStr">
         <is>
-          <t>04142D</t>
+          <t>04151D</t>
         </is>
       </c>
       <c r="Q8" s="7" t="inlineStr">
         <is>
-          <t>04161D</t>
+          <t>04132D</t>
         </is>
       </c>
       <c r="R8" s="7" t="inlineStr">
         <is>
-          <t>04162D</t>
+          <t>04131D</t>
         </is>
       </c>
       <c r="S8" s="7" t="inlineStr">
         <is>
-          <t>04181D</t>
+          <t>04112D</t>
         </is>
       </c>
       <c r="T8" s="7" t="inlineStr">
         <is>
-          <t>04182D</t>
+          <t>04111D</t>
         </is>
       </c>
       <c r="U8" s="7" t="inlineStr">
         <is>
-          <t>04204D</t>
+          <t>04092D</t>
         </is>
       </c>
       <c r="V8" s="7" t="inlineStr">
         <is>
-          <t>04204D</t>
+          <t>04091D</t>
         </is>
       </c>
       <c r="W8" s="7" t="inlineStr">
         <is>
-          <t>04221D</t>
+          <t>04072D</t>
         </is>
       </c>
       <c r="X8" s="7" t="inlineStr">
         <is>
-          <t>04222D</t>
+          <t>04071D</t>
         </is>
       </c>
       <c r="Y8" s="7" t="inlineStr">
         <is>
-          <t>04241D</t>
+          <t>04052D</t>
         </is>
       </c>
       <c r="Z8" s="7" t="inlineStr">
         <is>
-          <t>04242D</t>
+          <t>04051D</t>
         </is>
       </c>
       <c r="AA8" s="7" t="inlineStr">
         <is>
-          <t>04261D</t>
+          <t>04032D</t>
         </is>
       </c>
       <c r="AB8" s="7" t="inlineStr">
         <is>
-          <t>04262D</t>
+          <t>04031D</t>
         </is>
       </c>
       <c r="AC8" s="7" t="inlineStr">
         <is>
-          <t>04281D</t>
+          <t>04012D</t>
         </is>
       </c>
       <c r="AD8" s="7" t="inlineStr">
         <is>
-          <t>04282D</t>
+          <t>04011D</t>
         </is>
       </c>
     </row>
     <row r="9" ht="35" customHeight="1">
-      <c r="A9" s="32" t="n"/>
-      <c r="B9" s="32" t="n"/>
-      <c r="C9" s="33" t="inlineStr">
-        <is>
-          <t>M1009203-</t>
-        </is>
-      </c>
-      <c r="D9" s="33" t="inlineStr">
-        <is>
-          <t>B1005243-</t>
-        </is>
-      </c>
-      <c r="E9" s="33" t="inlineStr">
-        <is>
-          <t>b2010065-</t>
-        </is>
-      </c>
-      <c r="F9" s="34" t="inlineStr">
-        <is>
-          <t>T2001163-</t>
-        </is>
-      </c>
-      <c r="G9" s="34" t="inlineStr">
-        <is>
-          <t>B1004623-</t>
-        </is>
-      </c>
-      <c r="H9" s="34" t="inlineStr">
-        <is>
-          <t>B2010395-</t>
-        </is>
-      </c>
-      <c r="I9" s="34" t="inlineStr">
-        <is>
-          <t>B2010786-</t>
-        </is>
-      </c>
-      <c r="J9" s="34" t="inlineStr">
-        <is>
-          <t>B1007811-</t>
-        </is>
-      </c>
-      <c r="K9" s="34" t="inlineStr">
-        <is>
-          <t>E1000160-</t>
-        </is>
-      </c>
-      <c r="L9" s="34" t="inlineStr">
-        <is>
-          <t>t2000220-</t>
-        </is>
-      </c>
-      <c r="M9" s="34" t="n"/>
-      <c r="N9" s="34" t="inlineStr">
-        <is>
-          <t>b2000276-</t>
-        </is>
-      </c>
-      <c r="O9" s="34" t="inlineStr">
-        <is>
-          <t>B2009922-</t>
-        </is>
-      </c>
-      <c r="P9" s="34" t="inlineStr">
-        <is>
-          <t>B1007398-</t>
-        </is>
-      </c>
-      <c r="Q9" s="34" t="inlineStr">
-        <is>
-          <t>B2009983-</t>
-        </is>
-      </c>
-      <c r="R9" s="34" t="inlineStr">
-        <is>
-          <t>t1001244-</t>
-        </is>
-      </c>
-      <c r="S9" s="34" t="inlineStr">
-        <is>
-          <t>b1008667-</t>
-        </is>
-      </c>
-      <c r="T9" s="34" t="inlineStr">
-        <is>
-          <t>b1007329-</t>
-        </is>
-      </c>
-      <c r="U9" s="34" t="n"/>
-      <c r="V9" s="34" t="n"/>
-      <c r="W9" s="34" t="inlineStr">
-        <is>
-          <t>B1007334-</t>
-        </is>
-      </c>
-      <c r="X9" s="34" t="inlineStr">
-        <is>
-          <t>T1001198-</t>
-        </is>
-      </c>
-      <c r="Y9" s="34" t="inlineStr">
-        <is>
-          <t>B2000877-</t>
-        </is>
-      </c>
-      <c r="Z9" s="34" t="inlineStr">
-        <is>
-          <t>B2011068-</t>
-        </is>
-      </c>
-      <c r="AA9" s="34" t="inlineStr">
-        <is>
-          <t>T1001124-</t>
-        </is>
-      </c>
-      <c r="AB9" s="34" t="inlineStr">
-        <is>
-          <t>B2000341-</t>
-        </is>
-      </c>
-      <c r="AC9" s="34" t="inlineStr">
-        <is>
-          <t>B2011315-</t>
-        </is>
-      </c>
-      <c r="AD9" s="34" t="inlineStr">
-        <is>
-          <t>B2010229-</t>
+      <c r="A9" s="30" t="n"/>
+      <c r="B9" s="30" t="n"/>
+      <c r="C9" s="31" t="inlineStr">
+        <is>
+          <t>B2010182-</t>
+        </is>
+      </c>
+      <c r="D9" s="31" t="inlineStr">
+        <is>
+          <t>B1004995-</t>
+        </is>
+      </c>
+      <c r="E9" s="31" t="inlineStr">
+        <is>
+          <t>B2010936-</t>
+        </is>
+      </c>
+      <c r="F9" s="32" t="inlineStr">
+        <is>
+          <t>B1008146-</t>
+        </is>
+      </c>
+      <c r="G9" s="32" t="inlineStr">
+        <is>
+          <t>b1007883-</t>
+        </is>
+      </c>
+      <c r="H9" s="32" t="inlineStr">
+        <is>
+          <t>B2010869-</t>
+        </is>
+      </c>
+      <c r="I9" s="32" t="inlineStr">
+        <is>
+          <t>B2011255-</t>
+        </is>
+      </c>
+      <c r="J9" s="32" t="inlineStr">
+        <is>
+          <t>B2000753-</t>
+        </is>
+      </c>
+      <c r="K9" s="32" t="inlineStr">
+        <is>
+          <t>X1000120-</t>
+        </is>
+      </c>
+      <c r="L9" s="32" t="inlineStr">
+        <is>
+          <t>B2000830-</t>
+        </is>
+      </c>
+      <c r="M9" s="32" t="inlineStr">
+        <is>
+          <t>x1000138-</t>
+        </is>
+      </c>
+      <c r="N9" s="32" t="inlineStr">
+        <is>
+          <t>T2001966-</t>
+        </is>
+      </c>
+      <c r="O9" s="32" t="inlineStr">
+        <is>
+          <t>b1001284-</t>
+        </is>
+      </c>
+      <c r="P9" s="32" t="inlineStr">
+        <is>
+          <t>B1007625-</t>
+        </is>
+      </c>
+      <c r="Q9" s="32" t="inlineStr">
+        <is>
+          <t>b1006780-</t>
+        </is>
+      </c>
+      <c r="R9" s="32" t="inlineStr">
+        <is>
+          <t>b1008459-</t>
+        </is>
+      </c>
+      <c r="S9" s="32" t="inlineStr">
+        <is>
+          <t>t2000248-</t>
+        </is>
+      </c>
+      <c r="T9" s="32" t="inlineStr">
+        <is>
+          <t>t2001188-</t>
+        </is>
+      </c>
+      <c r="U9" s="32" t="inlineStr">
+        <is>
+          <t>M1013203-</t>
+        </is>
+      </c>
+      <c r="V9" s="32" t="inlineStr">
+        <is>
+          <t>T2000186-</t>
+        </is>
+      </c>
+      <c r="W9" s="32" t="inlineStr">
+        <is>
+          <t>B2010333-</t>
+        </is>
+      </c>
+      <c r="X9" s="32" t="inlineStr">
+        <is>
+          <t>B1004947-</t>
+        </is>
+      </c>
+      <c r="Y9" s="32" t="inlineStr">
+        <is>
+          <t>M1015398-</t>
+        </is>
+      </c>
+      <c r="Z9" s="32" t="inlineStr">
+        <is>
+          <t>B2010897-</t>
+        </is>
+      </c>
+      <c r="AA9" s="32" t="inlineStr">
+        <is>
+          <t>B2011266-</t>
+        </is>
+      </c>
+      <c r="AB9" s="32" t="inlineStr">
+        <is>
+          <t>b2011285-</t>
+        </is>
+      </c>
+      <c r="AC9" s="32" t="inlineStr">
+        <is>
+          <t>B2010859-</t>
+        </is>
+      </c>
+      <c r="AD9" s="32" t="inlineStr">
+        <is>
+          <t>t2001679-</t>
         </is>
       </c>
     </row>
@@ -1924,274 +1916,286 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>04021C</t>
+          <t>04272C</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>04022C</t>
+          <t>04271C</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>04041C</t>
+          <t>04252C</t>
         </is>
       </c>
       <c r="F10" s="7" t="inlineStr">
         <is>
-          <t>04042C</t>
+          <t>04251C</t>
         </is>
       </c>
       <c r="G10" s="7" t="inlineStr">
         <is>
-          <t>04061C</t>
+          <t>04232C</t>
         </is>
       </c>
       <c r="H10" s="7" t="inlineStr">
         <is>
-          <t>04062C</t>
+          <t>04231C</t>
         </is>
       </c>
       <c r="I10" s="7" t="inlineStr">
         <is>
-          <t>04081C</t>
+          <t>04212C</t>
         </is>
       </c>
       <c r="J10" s="7" t="inlineStr">
         <is>
-          <t>04082C</t>
+          <t>04211C</t>
         </is>
       </c>
       <c r="K10" s="7" t="inlineStr">
         <is>
-          <t>04101C</t>
+          <t>04192C</t>
         </is>
       </c>
       <c r="L10" s="7" t="inlineStr">
         <is>
-          <t>04102C</t>
+          <t>04191C</t>
         </is>
       </c>
       <c r="M10" s="7" t="inlineStr">
         <is>
-          <t>04121C</t>
+          <t>04172C</t>
         </is>
       </c>
       <c r="N10" s="7" t="inlineStr">
         <is>
-          <t>04122C</t>
+          <t>04171C</t>
         </is>
       </c>
       <c r="O10" s="7" t="inlineStr">
         <is>
-          <t>04141C</t>
+          <t>04152C</t>
         </is>
       </c>
       <c r="P10" s="7" t="inlineStr">
         <is>
-          <t>04142C</t>
+          <t>04151C</t>
         </is>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
-          <t>04161C</t>
+          <t>04132C</t>
         </is>
       </c>
       <c r="R10" s="7" t="inlineStr">
         <is>
-          <t>04162C</t>
+          <t>04131C</t>
         </is>
       </c>
       <c r="S10" s="7" t="inlineStr">
         <is>
-          <t>04181C</t>
+          <t>04112C</t>
         </is>
       </c>
       <c r="T10" s="7" t="inlineStr">
         <is>
-          <t>04182C</t>
+          <t>04111C</t>
         </is>
       </c>
       <c r="U10" s="7" t="inlineStr">
         <is>
-          <t>04204C</t>
+          <t>04092C</t>
         </is>
       </c>
       <c r="V10" s="7" t="inlineStr">
         <is>
-          <t>04204C</t>
+          <t>04091C</t>
         </is>
       </c>
       <c r="W10" s="7" t="inlineStr">
         <is>
-          <t>04221C</t>
+          <t>04072C</t>
         </is>
       </c>
       <c r="X10" s="7" t="inlineStr">
         <is>
-          <t>04222C</t>
+          <t>04071C</t>
         </is>
       </c>
       <c r="Y10" s="7" t="inlineStr">
         <is>
-          <t>04241C</t>
+          <t>04052C</t>
         </is>
       </c>
       <c r="Z10" s="7" t="inlineStr">
         <is>
-          <t>04242C</t>
+          <t>04051C</t>
         </is>
       </c>
       <c r="AA10" s="7" t="inlineStr">
         <is>
-          <t>04261C</t>
+          <t>04032C</t>
         </is>
       </c>
       <c r="AB10" s="7" t="inlineStr">
         <is>
-          <t>04262C</t>
+          <t>04031C</t>
         </is>
       </c>
       <c r="AC10" s="7" t="inlineStr">
         <is>
-          <t>04281C</t>
+          <t>04012C</t>
         </is>
       </c>
       <c r="AD10" s="7" t="inlineStr">
         <is>
-          <t>04282C</t>
+          <t>04011C</t>
         </is>
       </c>
     </row>
     <row r="11" ht="35" customHeight="1">
-      <c r="A11" s="32" t="n"/>
-      <c r="B11" s="32" t="n"/>
-      <c r="C11" s="33" t="inlineStr">
-        <is>
-          <t>B1009097-</t>
-        </is>
-      </c>
-      <c r="D11" s="33" t="inlineStr">
-        <is>
-          <t>B1009084-</t>
-        </is>
-      </c>
-      <c r="E11" s="33" t="inlineStr">
-        <is>
-          <t>B2011206-</t>
-        </is>
-      </c>
-      <c r="F11" s="34" t="inlineStr">
-        <is>
-          <t>B1007352-</t>
-        </is>
-      </c>
-      <c r="G11" s="34" t="inlineStr">
-        <is>
-          <t>B2011078-</t>
-        </is>
-      </c>
-      <c r="H11" s="34" t="inlineStr">
-        <is>
-          <t>B2010943-</t>
-        </is>
-      </c>
-      <c r="I11" s="34" t="inlineStr">
-        <is>
-          <t>b1007836-</t>
-        </is>
-      </c>
-      <c r="J11" s="34" t="inlineStr">
-        <is>
-          <t>B1007283-</t>
-        </is>
-      </c>
-      <c r="K11" s="34" t="inlineStr">
-        <is>
-          <t>B1005317-</t>
-        </is>
-      </c>
-      <c r="L11" s="34" t="inlineStr">
-        <is>
-          <t>B2010531-</t>
-        </is>
-      </c>
-      <c r="M11" s="34" t="inlineStr">
-        <is>
-          <t>B2010005-</t>
-        </is>
-      </c>
-      <c r="N11" s="34" t="inlineStr">
-        <is>
-          <t>B1008586-</t>
-        </is>
-      </c>
-      <c r="O11" s="34" t="inlineStr">
-        <is>
-          <t>b2000059-</t>
-        </is>
-      </c>
-      <c r="P11" s="34" t="n"/>
-      <c r="Q11" s="34" t="inlineStr">
-        <is>
-          <t>B1000148-</t>
-        </is>
-      </c>
-      <c r="R11" s="34" t="inlineStr">
-        <is>
-          <t>B2000328-</t>
-        </is>
-      </c>
-      <c r="S11" s="34" t="inlineStr">
-        <is>
-          <t>B1008828-</t>
-        </is>
-      </c>
-      <c r="T11" s="34" t="inlineStr">
-        <is>
-          <t>T2000209-</t>
-        </is>
-      </c>
-      <c r="U11" s="34" t="n"/>
-      <c r="V11" s="34" t="n"/>
-      <c r="W11" s="34" t="inlineStr">
-        <is>
-          <t>B1008449-</t>
-        </is>
-      </c>
-      <c r="X11" s="34" t="inlineStr">
-        <is>
-          <t>B2011327-</t>
-        </is>
-      </c>
-      <c r="Y11" s="34" t="inlineStr">
-        <is>
-          <t>B1009002-</t>
-        </is>
-      </c>
-      <c r="Z11" s="34" t="inlineStr">
-        <is>
-          <t>t1000342-</t>
-        </is>
-      </c>
-      <c r="AA11" s="34" t="inlineStr">
-        <is>
-          <t>B2010504-</t>
-        </is>
-      </c>
-      <c r="AB11" s="34" t="inlineStr">
-        <is>
-          <t>b1001318-</t>
-        </is>
-      </c>
-      <c r="AC11" s="34" t="inlineStr">
-        <is>
-          <t>t2000263-</t>
-        </is>
-      </c>
-      <c r="AD11" s="34" t="inlineStr">
-        <is>
-          <t>X1000146-</t>
+      <c r="A11" s="30" t="n"/>
+      <c r="B11" s="30" t="n"/>
+      <c r="C11" s="31" t="inlineStr">
+        <is>
+          <t>b1008204-</t>
+        </is>
+      </c>
+      <c r="D11" s="31" t="inlineStr">
+        <is>
+          <t>B2010370-</t>
+        </is>
+      </c>
+      <c r="E11" s="31" t="inlineStr">
+        <is>
+          <t>B2011320-</t>
+        </is>
+      </c>
+      <c r="F11" s="32" t="inlineStr">
+        <is>
+          <t>B2011229-</t>
+        </is>
+      </c>
+      <c r="G11" s="32" t="inlineStr">
+        <is>
+          <t>B1004629-</t>
+        </is>
+      </c>
+      <c r="H11" s="32" t="inlineStr">
+        <is>
+          <t>B2011387-</t>
+        </is>
+      </c>
+      <c r="I11" s="32" t="inlineStr">
+        <is>
+          <t>B1000165-</t>
+        </is>
+      </c>
+      <c r="J11" s="32" t="inlineStr">
+        <is>
+          <t>B2000323-</t>
+        </is>
+      </c>
+      <c r="K11" s="32" t="inlineStr">
+        <is>
+          <t>B2012252-</t>
+        </is>
+      </c>
+      <c r="L11" s="32" t="inlineStr">
+        <is>
+          <t>M1011162-</t>
+        </is>
+      </c>
+      <c r="M11" s="32" t="inlineStr">
+        <is>
+          <t>E1000156-</t>
+        </is>
+      </c>
+      <c r="N11" s="32" t="inlineStr">
+        <is>
+          <t>B1009278-</t>
+        </is>
+      </c>
+      <c r="O11" s="32" t="inlineStr">
+        <is>
+          <t>m1002563-</t>
+        </is>
+      </c>
+      <c r="P11" s="32" t="inlineStr">
+        <is>
+          <t>B1008555-</t>
+        </is>
+      </c>
+      <c r="Q11" s="32" t="inlineStr">
+        <is>
+          <t>b2010772-</t>
+        </is>
+      </c>
+      <c r="R11" s="32" t="inlineStr">
+        <is>
+          <t>b1005706-</t>
+        </is>
+      </c>
+      <c r="S11" s="32" t="inlineStr">
+        <is>
+          <t>b1007255-</t>
+        </is>
+      </c>
+      <c r="T11" s="32" t="inlineStr">
+        <is>
+          <t>b2010563-</t>
+        </is>
+      </c>
+      <c r="U11" s="32" t="inlineStr">
+        <is>
+          <t>B2011003-</t>
+        </is>
+      </c>
+      <c r="V11" s="32" t="inlineStr">
+        <is>
+          <t>P1223649-</t>
+        </is>
+      </c>
+      <c r="W11" s="32" t="inlineStr">
+        <is>
+          <t>B2010892-</t>
+        </is>
+      </c>
+      <c r="X11" s="32" t="inlineStr">
+        <is>
+          <t>b1006914-</t>
+        </is>
+      </c>
+      <c r="Y11" s="32" t="inlineStr">
+        <is>
+          <t>B2010479-</t>
+        </is>
+      </c>
+      <c r="Z11" s="32" t="inlineStr">
+        <is>
+          <t>T2002355-</t>
+        </is>
+      </c>
+      <c r="AA11" s="32" t="inlineStr">
+        <is>
+          <t>b1005052-</t>
+        </is>
+      </c>
+      <c r="AB11" s="32" t="inlineStr">
+        <is>
+          <t>b1004876-</t>
+        </is>
+      </c>
+      <c r="AC11" s="32" t="inlineStr">
+        <is>
+          <t>B1007227-</t>
+        </is>
+      </c>
+      <c r="AD11" s="32" t="inlineStr">
+        <is>
+          <t>B2011538-</t>
         </is>
       </c>
     </row>
@@ -2204,278 +2208,286 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>04021B</t>
+          <t>04272B</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>04022B</t>
+          <t>04271B</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>04041B</t>
+          <t>04252B</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr">
         <is>
-          <t>04042B</t>
+          <t>04251B</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>04061B</t>
+          <t>04232B</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr">
         <is>
-          <t>04062B</t>
+          <t>04231B</t>
         </is>
       </c>
       <c r="I12" s="7" t="inlineStr">
         <is>
-          <t>04081B</t>
+          <t>04212B</t>
         </is>
       </c>
       <c r="J12" s="7" t="inlineStr">
         <is>
-          <t>04082B</t>
+          <t>04211B</t>
         </is>
       </c>
       <c r="K12" s="7" t="inlineStr">
         <is>
-          <t>04101B</t>
+          <t>04192B</t>
         </is>
       </c>
       <c r="L12" s="7" t="inlineStr">
         <is>
-          <t>04102B</t>
+          <t>04191B</t>
         </is>
       </c>
       <c r="M12" s="7" t="inlineStr">
         <is>
-          <t>04121B</t>
+          <t>04172B</t>
         </is>
       </c>
       <c r="N12" s="7" t="inlineStr">
         <is>
-          <t>04122B</t>
+          <t>04171B</t>
         </is>
       </c>
       <c r="O12" s="7" t="inlineStr">
         <is>
-          <t>04141B</t>
+          <t>04152B</t>
         </is>
       </c>
       <c r="P12" s="7" t="inlineStr">
         <is>
-          <t>04142B</t>
+          <t>04151B</t>
         </is>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
-          <t>04161B</t>
+          <t>04132B</t>
         </is>
       </c>
       <c r="R12" s="7" t="inlineStr">
         <is>
-          <t>04162B</t>
+          <t>04131B</t>
         </is>
       </c>
       <c r="S12" s="7" t="inlineStr">
         <is>
-          <t>04181B</t>
+          <t>04112B</t>
         </is>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
-          <t>04182B</t>
+          <t>04111B</t>
         </is>
       </c>
       <c r="U12" s="7" t="inlineStr">
         <is>
-          <t>04204B</t>
+          <t>04092B</t>
         </is>
       </c>
       <c r="V12" s="7" t="inlineStr">
         <is>
-          <t>04204B</t>
+          <t>04091B</t>
         </is>
       </c>
       <c r="W12" s="7" t="inlineStr">
         <is>
-          <t>04221B</t>
+          <t>04072B</t>
         </is>
       </c>
       <c r="X12" s="7" t="inlineStr">
         <is>
-          <t>04222B</t>
+          <t>04071B</t>
         </is>
       </c>
       <c r="Y12" s="7" t="inlineStr">
         <is>
-          <t>04241B</t>
+          <t>04052B</t>
         </is>
       </c>
       <c r="Z12" s="7" t="inlineStr">
         <is>
-          <t>04242B</t>
+          <t>04051B</t>
         </is>
       </c>
       <c r="AA12" s="7" t="inlineStr">
         <is>
-          <t>04261B</t>
+          <t>04032B</t>
         </is>
       </c>
       <c r="AB12" s="7" t="inlineStr">
         <is>
-          <t>04262B</t>
+          <t>04031B</t>
         </is>
       </c>
       <c r="AC12" s="7" t="inlineStr">
         <is>
-          <t>04281B</t>
+          <t>04012B</t>
         </is>
       </c>
       <c r="AD12" s="7" t="inlineStr">
         <is>
-          <t>04282B</t>
+          <t>04011B</t>
         </is>
       </c>
     </row>
     <row r="13" ht="35" customHeight="1">
-      <c r="A13" s="32" t="n"/>
-      <c r="B13" s="32" t="n"/>
-      <c r="C13" s="34" t="inlineStr">
-        <is>
-          <t>b1008606-</t>
-        </is>
-      </c>
-      <c r="D13" s="34" t="inlineStr">
-        <is>
-          <t>b1004786-</t>
-        </is>
-      </c>
-      <c r="E13" s="34" t="inlineStr">
-        <is>
-          <t>B1009051-</t>
-        </is>
-      </c>
-      <c r="F13" s="34" t="inlineStr">
-        <is>
-          <t>B2000027-</t>
-        </is>
-      </c>
-      <c r="G13" s="34" t="inlineStr">
-        <is>
-          <t>t2001146-</t>
-        </is>
-      </c>
-      <c r="H13" s="34" t="inlineStr">
-        <is>
-          <t>M1016781-</t>
-        </is>
-      </c>
-      <c r="I13" s="34" t="inlineStr">
-        <is>
-          <t>b1008800-</t>
-        </is>
-      </c>
-      <c r="J13" s="34" t="inlineStr">
-        <is>
-          <t>B2010399-</t>
-        </is>
-      </c>
-      <c r="K13" s="34" t="inlineStr">
-        <is>
-          <t>b1008913-</t>
-        </is>
-      </c>
-      <c r="L13" s="34" t="inlineStr">
-        <is>
-          <t>b2000541-</t>
-        </is>
-      </c>
-      <c r="M13" s="34" t="inlineStr">
-        <is>
-          <t>b2011082-</t>
-        </is>
-      </c>
-      <c r="N13" s="34" t="inlineStr">
-        <is>
-          <t>b1008183-</t>
-        </is>
-      </c>
-      <c r="O13" s="34" t="inlineStr">
-        <is>
-          <t>b2010667-</t>
-        </is>
-      </c>
-      <c r="P13" s="34" t="inlineStr">
-        <is>
-          <t>T2001558-</t>
-        </is>
-      </c>
-      <c r="Q13" s="34" t="inlineStr">
-        <is>
-          <t>B1009206-</t>
-        </is>
-      </c>
-      <c r="R13" s="34" t="inlineStr">
-        <is>
-          <t>T2001699-</t>
-        </is>
-      </c>
-      <c r="S13" s="34" t="inlineStr">
-        <is>
-          <t>b1005949-</t>
-        </is>
-      </c>
-      <c r="T13" s="34" t="inlineStr">
-        <is>
-          <t>B1009070-</t>
-        </is>
-      </c>
-      <c r="U13" s="34" t="n"/>
-      <c r="V13" s="34" t="n"/>
-      <c r="W13" s="34" t="inlineStr">
-        <is>
-          <t>B2010607-</t>
-        </is>
-      </c>
-      <c r="X13" s="34" t="inlineStr">
-        <is>
-          <t>T2001403-</t>
-        </is>
-      </c>
-      <c r="Y13" s="34" t="inlineStr">
-        <is>
-          <t>B1005035-</t>
-        </is>
-      </c>
-      <c r="Z13" s="34" t="inlineStr">
-        <is>
-          <t>B1008223-</t>
-        </is>
-      </c>
-      <c r="AA13" s="34" t="inlineStr">
-        <is>
-          <t>B2011390-</t>
-        </is>
-      </c>
-      <c r="AB13" s="34" t="inlineStr">
-        <is>
-          <t>B1007225-</t>
-        </is>
-      </c>
-      <c r="AC13" s="34" t="inlineStr">
-        <is>
-          <t>B1009050-</t>
-        </is>
-      </c>
-      <c r="AD13" s="34" t="inlineStr">
-        <is>
-          <t>B2010912-</t>
+      <c r="A13" s="30" t="n"/>
+      <c r="B13" s="30" t="n"/>
+      <c r="C13" s="31" t="inlineStr">
+        <is>
+          <t>t2001282-</t>
+        </is>
+      </c>
+      <c r="D13" s="31" t="inlineStr">
+        <is>
+          <t>B1008585-</t>
+        </is>
+      </c>
+      <c r="E13" s="32" t="inlineStr">
+        <is>
+          <t>b2011126-</t>
+        </is>
+      </c>
+      <c r="F13" s="32" t="inlineStr">
+        <is>
+          <t>T2001408-</t>
+        </is>
+      </c>
+      <c r="G13" s="32" t="inlineStr">
+        <is>
+          <t>T2003251-</t>
+        </is>
+      </c>
+      <c r="H13" s="32" t="inlineStr">
+        <is>
+          <t>t2000227-</t>
+        </is>
+      </c>
+      <c r="I13" s="32" t="inlineStr">
+        <is>
+          <t>B1007966-</t>
+        </is>
+      </c>
+      <c r="J13" s="32" t="inlineStr">
+        <is>
+          <t>T1000519-</t>
+        </is>
+      </c>
+      <c r="K13" s="32" t="inlineStr">
+        <is>
+          <t>B1008561-</t>
+        </is>
+      </c>
+      <c r="L13" s="32" t="inlineStr">
+        <is>
+          <t>T1000049-</t>
+        </is>
+      </c>
+      <c r="M13" s="32" t="inlineStr">
+        <is>
+          <t>B2010303-</t>
+        </is>
+      </c>
+      <c r="N13" s="32" t="inlineStr">
+        <is>
+          <t>B1004880-</t>
+        </is>
+      </c>
+      <c r="O13" s="32" t="inlineStr">
+        <is>
+          <t>T2001853-</t>
+        </is>
+      </c>
+      <c r="P13" s="32" t="inlineStr">
+        <is>
+          <t>p1227554-</t>
+        </is>
+      </c>
+      <c r="Q13" s="32" t="inlineStr">
+        <is>
+          <t>B1006736-</t>
+        </is>
+      </c>
+      <c r="R13" s="32" t="inlineStr">
+        <is>
+          <t>B1006131-</t>
+        </is>
+      </c>
+      <c r="S13" s="32" t="inlineStr">
+        <is>
+          <t>t2000222-</t>
+        </is>
+      </c>
+      <c r="T13" s="32" t="inlineStr">
+        <is>
+          <t>B2000179-</t>
+        </is>
+      </c>
+      <c r="U13" s="32" t="inlineStr">
+        <is>
+          <t>B1008839-</t>
+        </is>
+      </c>
+      <c r="V13" s="32" t="inlineStr">
+        <is>
+          <t>T2003271-</t>
+        </is>
+      </c>
+      <c r="W13" s="32" t="inlineStr">
+        <is>
+          <t>b1008834-</t>
+        </is>
+      </c>
+      <c r="X13" s="32" t="inlineStr">
+        <is>
+          <t>B2010594-</t>
+        </is>
+      </c>
+      <c r="Y13" s="32" t="inlineStr">
+        <is>
+          <t>b1007261-</t>
+        </is>
+      </c>
+      <c r="Z13" s="32" t="inlineStr">
+        <is>
+          <t>B1004502-</t>
+        </is>
+      </c>
+      <c r="AA13" s="32" t="inlineStr">
+        <is>
+          <t>B2011115-</t>
+        </is>
+      </c>
+      <c r="AB13" s="32" t="inlineStr">
+        <is>
+          <t>X1000156-</t>
+        </is>
+      </c>
+      <c r="AC13" s="32" t="inlineStr">
+        <is>
+          <t>B1009106-</t>
+        </is>
+      </c>
+      <c r="AD13" s="32" t="inlineStr">
+        <is>
+          <t>B1007926-</t>
         </is>
       </c>
     </row>
@@ -2486,268 +2498,289 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C14" s="20" t="inlineStr">
-        <is>
-          <t>04021A</t>
-        </is>
-      </c>
-      <c r="D14" s="20" t="inlineStr">
-        <is>
-          <t>04022A</t>
-        </is>
-      </c>
-      <c r="E14" s="20" t="inlineStr">
-        <is>
-          <t>04041A</t>
-        </is>
-      </c>
-      <c r="F14" s="20" t="inlineStr">
-        <is>
-          <t>04042A</t>
-        </is>
-      </c>
-      <c r="G14" s="20" t="inlineStr">
-        <is>
-          <t>04061A</t>
-        </is>
-      </c>
-      <c r="H14" s="20" t="inlineStr">
-        <is>
-          <t>04062A</t>
-        </is>
-      </c>
-      <c r="I14" s="20" t="inlineStr">
-        <is>
-          <t>04081A</t>
-        </is>
-      </c>
-      <c r="J14" s="20" t="inlineStr">
-        <is>
-          <t>04082A</t>
-        </is>
-      </c>
-      <c r="K14" s="20" t="inlineStr">
-        <is>
-          <t>04101A</t>
-        </is>
-      </c>
-      <c r="L14" s="20" t="inlineStr">
-        <is>
-          <t>04102A</t>
-        </is>
-      </c>
-      <c r="M14" s="20" t="inlineStr">
-        <is>
-          <t>04121A</t>
-        </is>
-      </c>
-      <c r="N14" s="20" t="inlineStr">
-        <is>
-          <t>04122A</t>
-        </is>
-      </c>
-      <c r="O14" s="20" t="inlineStr">
-        <is>
-          <t>04141A</t>
-        </is>
-      </c>
-      <c r="P14" s="20" t="inlineStr">
-        <is>
-          <t>04142A</t>
-        </is>
-      </c>
-      <c r="Q14" s="20" t="inlineStr">
-        <is>
-          <t>04161A</t>
-        </is>
-      </c>
-      <c r="R14" s="20" t="inlineStr">
-        <is>
-          <t>04162A</t>
-        </is>
-      </c>
-      <c r="S14" s="20" t="inlineStr">
-        <is>
-          <t>04181A</t>
-        </is>
-      </c>
-      <c r="T14" s="20" t="inlineStr">
-        <is>
-          <t>04182A</t>
-        </is>
-      </c>
-      <c r="U14" s="20" t="inlineStr">
-        <is>
-          <t>04204A</t>
-        </is>
-      </c>
-      <c r="V14" s="20" t="inlineStr">
-        <is>
-          <t>04204A</t>
-        </is>
-      </c>
-      <c r="W14" s="20" t="inlineStr">
-        <is>
-          <t>04221A</t>
-        </is>
-      </c>
-      <c r="X14" s="20" t="inlineStr">
-        <is>
-          <t>04222A</t>
-        </is>
-      </c>
-      <c r="Y14" s="20" t="inlineStr">
-        <is>
-          <t>04241A</t>
-        </is>
-      </c>
-      <c r="Z14" s="20" t="inlineStr">
-        <is>
-          <t>04242A</t>
-        </is>
-      </c>
-      <c r="AA14" s="20" t="inlineStr">
-        <is>
-          <t>04261A</t>
-        </is>
-      </c>
-      <c r="AB14" s="20" t="inlineStr">
-        <is>
-          <t>04262A</t>
-        </is>
-      </c>
-      <c r="AC14" s="20" t="inlineStr">
-        <is>
-          <t>04281A</t>
-        </is>
-      </c>
-      <c r="AD14" s="20" t="inlineStr">
-        <is>
-          <t>04282A</t>
+      <c r="C14" s="19" t="inlineStr">
+        <is>
+          <t>04272A</t>
+        </is>
+      </c>
+      <c r="D14" s="19" t="inlineStr">
+        <is>
+          <t>04271A</t>
+        </is>
+      </c>
+      <c r="E14" s="19" t="inlineStr">
+        <is>
+          <t>04252A</t>
+        </is>
+      </c>
+      <c r="F14" s="19" t="inlineStr">
+        <is>
+          <t>04251A</t>
+        </is>
+      </c>
+      <c r="G14" s="19" t="inlineStr">
+        <is>
+          <t>04232A</t>
+        </is>
+      </c>
+      <c r="H14" s="19" t="inlineStr">
+        <is>
+          <t>04231A</t>
+        </is>
+      </c>
+      <c r="I14" s="19" t="inlineStr">
+        <is>
+          <t>04212A</t>
+        </is>
+      </c>
+      <c r="J14" s="19" t="inlineStr">
+        <is>
+          <t>04211A</t>
+        </is>
+      </c>
+      <c r="K14" s="19" t="inlineStr">
+        <is>
+          <t>04192A</t>
+        </is>
+      </c>
+      <c r="L14" s="19" t="inlineStr">
+        <is>
+          <t>04191A</t>
+        </is>
+      </c>
+      <c r="M14" s="19" t="inlineStr">
+        <is>
+          <t>04172A</t>
+        </is>
+      </c>
+      <c r="N14" s="19" t="inlineStr">
+        <is>
+          <t>04171A</t>
+        </is>
+      </c>
+      <c r="O14" s="19" t="inlineStr">
+        <is>
+          <t>04152A</t>
+        </is>
+      </c>
+      <c r="P14" s="19" t="inlineStr">
+        <is>
+          <t>04151A</t>
+        </is>
+      </c>
+      <c r="Q14" s="19" t="inlineStr">
+        <is>
+          <t>04132A</t>
+        </is>
+      </c>
+      <c r="R14" s="19" t="inlineStr">
+        <is>
+          <t>04131A</t>
+        </is>
+      </c>
+      <c r="S14" s="19" t="inlineStr">
+        <is>
+          <t>04112A</t>
+        </is>
+      </c>
+      <c r="T14" s="19" t="inlineStr">
+        <is>
+          <t>04111A</t>
+        </is>
+      </c>
+      <c r="U14" s="19" t="inlineStr">
+        <is>
+          <t>04092A</t>
+        </is>
+      </c>
+      <c r="V14" s="19" t="inlineStr">
+        <is>
+          <t>04091A</t>
+        </is>
+      </c>
+      <c r="W14" s="19" t="inlineStr">
+        <is>
+          <t>04072A</t>
+        </is>
+      </c>
+      <c r="X14" s="19" t="inlineStr">
+        <is>
+          <t>04071A</t>
+        </is>
+      </c>
+      <c r="Y14" s="19" t="inlineStr">
+        <is>
+          <t>04052A</t>
+        </is>
+      </c>
+      <c r="Z14" s="19" t="inlineStr">
+        <is>
+          <t>04051A</t>
+        </is>
+      </c>
+      <c r="AA14" s="19" t="inlineStr">
+        <is>
+          <t>04032A</t>
+        </is>
+      </c>
+      <c r="AB14" s="19" t="inlineStr">
+        <is>
+          <t>04031A</t>
+        </is>
+      </c>
+      <c r="AC14" s="19" t="inlineStr">
+        <is>
+          <t>04012A</t>
+        </is>
+      </c>
+      <c r="AD14" s="19" t="inlineStr">
+        <is>
+          <t>04011A</t>
         </is>
       </c>
     </row>
     <row r="15" ht="35" customHeight="1">
-      <c r="A15" s="36" t="n"/>
-      <c r="B15" s="36" t="n"/>
-      <c r="C15" s="33" t="n"/>
-      <c r="D15" s="33" t="inlineStr">
-        <is>
-          <t>b1007794-</t>
-        </is>
-      </c>
-      <c r="E15" s="33" t="inlineStr">
-        <is>
-          <t>B1005500-</t>
-        </is>
-      </c>
-      <c r="F15" s="33" t="inlineStr">
-        <is>
-          <t>B1006248-</t>
-        </is>
-      </c>
-      <c r="G15" s="33" t="inlineStr">
-        <is>
-          <t>B2011318-</t>
-        </is>
-      </c>
-      <c r="H15" s="33" t="inlineStr">
-        <is>
-          <t>B2010583-</t>
-        </is>
-      </c>
-      <c r="I15" s="33" t="inlineStr">
-        <is>
-          <t>T1000771-</t>
-        </is>
-      </c>
-      <c r="J15" s="33" t="inlineStr">
-        <is>
-          <t>b2010845-</t>
-        </is>
-      </c>
-      <c r="K15" s="33" t="inlineStr">
-        <is>
-          <t>b1001246-</t>
-        </is>
-      </c>
-      <c r="L15" s="33" t="inlineStr">
-        <is>
-          <t>B2000988-</t>
-        </is>
-      </c>
-      <c r="M15" s="33" t="inlineStr">
-        <is>
-          <t>M1015649-</t>
-        </is>
-      </c>
-      <c r="N15" s="33" t="inlineStr">
-        <is>
-          <t>B2000161-</t>
-        </is>
-      </c>
-      <c r="O15" s="33" t="n"/>
-      <c r="P15" s="33" t="inlineStr">
-        <is>
-          <t>m1017737-</t>
-        </is>
-      </c>
-      <c r="Q15" s="33" t="inlineStr">
-        <is>
-          <t>T2001654-</t>
-        </is>
-      </c>
-      <c r="R15" s="33" t="n"/>
-      <c r="S15" s="33" t="inlineStr">
-        <is>
-          <t>B2011313-</t>
-        </is>
-      </c>
-      <c r="T15" s="33" t="inlineStr">
-        <is>
-          <t>b1007402-</t>
-        </is>
-      </c>
-      <c r="U15" s="33" t="n"/>
-      <c r="V15" s="33" t="n"/>
-      <c r="W15" s="33" t="inlineStr">
-        <is>
-          <t>B1005939-</t>
-        </is>
-      </c>
-      <c r="X15" s="33" t="inlineStr">
-        <is>
-          <t>b2010771-</t>
-        </is>
-      </c>
-      <c r="Y15" s="33" t="inlineStr">
-        <is>
-          <t>T2002991-</t>
-        </is>
-      </c>
-      <c r="Z15" s="33" t="inlineStr">
-        <is>
-          <t>B2011274-</t>
-        </is>
-      </c>
-      <c r="AA15" s="33" t="inlineStr">
-        <is>
-          <t>P1234071-</t>
-        </is>
-      </c>
-      <c r="AB15" s="33" t="inlineStr">
-        <is>
-          <t>B2000156-</t>
-        </is>
-      </c>
-      <c r="AC15" s="33" t="inlineStr">
-        <is>
-          <t>B1008235-</t>
-        </is>
-      </c>
-      <c r="AD15" s="33" t="inlineStr">
-        <is>
-          <t>m1015708-</t>
+      <c r="A15" s="33" t="n"/>
+      <c r="B15" s="33" t="n"/>
+      <c r="C15" s="31" t="inlineStr">
+        <is>
+          <t>M1016819-</t>
+        </is>
+      </c>
+      <c r="D15" s="31" t="inlineStr">
+        <is>
+          <t>B2011434-</t>
+        </is>
+      </c>
+      <c r="E15" s="31" t="inlineStr">
+        <is>
+          <t>B2010078-</t>
+        </is>
+      </c>
+      <c r="F15" s="31" t="inlineStr">
+        <is>
+          <t>P1222076-</t>
+        </is>
+      </c>
+      <c r="G15" s="31" t="inlineStr">
+        <is>
+          <t>B2010068-</t>
+        </is>
+      </c>
+      <c r="H15" s="31" t="inlineStr">
+        <is>
+          <t>b2011502-</t>
+        </is>
+      </c>
+      <c r="I15" s="31" t="inlineStr">
+        <is>
+          <t>B2000153-</t>
+        </is>
+      </c>
+      <c r="J15" s="31" t="inlineStr">
+        <is>
+          <t>B1004257-</t>
+        </is>
+      </c>
+      <c r="K15" s="31" t="inlineStr">
+        <is>
+          <t>T2000040-</t>
+        </is>
+      </c>
+      <c r="L15" s="31" t="inlineStr">
+        <is>
+          <t>W2000112-</t>
+        </is>
+      </c>
+      <c r="M15" s="31" t="inlineStr">
+        <is>
+          <t>B2011076-</t>
+        </is>
+      </c>
+      <c r="N15" s="31" t="inlineStr">
+        <is>
+          <t>b1008482-</t>
+        </is>
+      </c>
+      <c r="O15" s="31" t="inlineStr">
+        <is>
+          <t>b1007779-</t>
+        </is>
+      </c>
+      <c r="P15" s="31" t="inlineStr">
+        <is>
+          <t>B1006823-</t>
+        </is>
+      </c>
+      <c r="Q15" s="31" t="inlineStr">
+        <is>
+          <t>b2010561-</t>
+        </is>
+      </c>
+      <c r="R15" s="31" t="inlineStr">
+        <is>
+          <t>b1009220-</t>
+        </is>
+      </c>
+      <c r="S15" s="34" t="inlineStr">
+        <is>
+          <t>B2000964-
+M1011014-</t>
+        </is>
+      </c>
+      <c r="T15" s="31" t="inlineStr">
+        <is>
+          <t>B2000946-</t>
+        </is>
+      </c>
+      <c r="U15" s="31" t="inlineStr">
+        <is>
+          <t>b1007771-</t>
+        </is>
+      </c>
+      <c r="V15" s="31" t="inlineStr">
+        <is>
+          <t>B1007944-</t>
+        </is>
+      </c>
+      <c r="W15" s="31" t="inlineStr">
+        <is>
+          <t>B1008298-</t>
+        </is>
+      </c>
+      <c r="X15" s="31" t="inlineStr">
+        <is>
+          <t>B2010826-</t>
+        </is>
+      </c>
+      <c r="Y15" s="31" t="inlineStr">
+        <is>
+          <t>B1000232-</t>
+        </is>
+      </c>
+      <c r="Z15" s="31" t="inlineStr">
+        <is>
+          <t>B2010637-</t>
+        </is>
+      </c>
+      <c r="AA15" s="31" t="inlineStr">
+        <is>
+          <t>B1000166-</t>
+        </is>
+      </c>
+      <c r="AB15" s="31" t="inlineStr">
+        <is>
+          <t>p1207031-</t>
+        </is>
+      </c>
+      <c r="AC15" s="31" t="inlineStr">
+        <is>
+          <t>B2011202-</t>
+        </is>
+      </c>
+      <c r="AD15" s="31" t="inlineStr">
+        <is>
+          <t>B2011302-</t>
         </is>
       </c>
     </row>
@@ -3008,280 +3041,276 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>04272G</t>
+          <t>04021G</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>04271G</t>
+          <t>04022G</t>
         </is>
       </c>
       <c r="E18" s="11" t="inlineStr">
         <is>
-          <t>04252G</t>
+          <t>04041G</t>
         </is>
       </c>
       <c r="F18" s="11" t="inlineStr">
         <is>
-          <t>04251G</t>
+          <t>04042G</t>
         </is>
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
-          <t>04232G</t>
+          <t>04061G</t>
         </is>
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t>04231G</t>
+          <t>04062G</t>
         </is>
       </c>
       <c r="I18" s="11" t="inlineStr">
         <is>
-          <t>04212G</t>
+          <t>04081G</t>
         </is>
       </c>
       <c r="J18" s="11" t="inlineStr">
         <is>
-          <t>04211G</t>
+          <t>04082G</t>
         </is>
       </c>
       <c r="K18" s="11" t="inlineStr">
         <is>
-          <t>04192G</t>
+          <t>04101G</t>
         </is>
       </c>
       <c r="L18" s="11" t="inlineStr">
         <is>
-          <t>04191G</t>
+          <t>04102G</t>
         </is>
       </c>
       <c r="M18" s="11" t="inlineStr">
         <is>
-          <t>04172G</t>
+          <t>04121G</t>
         </is>
       </c>
       <c r="N18" s="11" t="inlineStr">
         <is>
-          <t>04171G</t>
+          <t>04122G</t>
         </is>
       </c>
       <c r="O18" s="11" t="inlineStr">
         <is>
-          <t>04152G</t>
+          <t>04141G</t>
         </is>
       </c>
       <c r="P18" s="11" t="inlineStr">
         <is>
-          <t>04151G</t>
+          <t>04142G</t>
         </is>
       </c>
       <c r="Q18" s="11" t="inlineStr">
         <is>
-          <t>04132G</t>
+          <t>04161G</t>
         </is>
       </c>
       <c r="R18" s="11" t="inlineStr">
         <is>
-          <t>04131G</t>
+          <t>04162G</t>
         </is>
       </c>
       <c r="S18" s="11" t="inlineStr">
         <is>
-          <t>04112G</t>
+          <t>04181G</t>
         </is>
       </c>
       <c r="T18" s="11" t="inlineStr">
         <is>
-          <t>04111G</t>
+          <t>04182G</t>
         </is>
       </c>
       <c r="U18" s="11" t="inlineStr">
         <is>
-          <t>04092G</t>
+          <t>04201G</t>
         </is>
       </c>
       <c r="V18" s="11" t="inlineStr">
         <is>
-          <t>04091G</t>
+          <t>04202G</t>
         </is>
       </c>
       <c r="W18" s="11" t="inlineStr">
         <is>
-          <t>04072G</t>
+          <t>04221G</t>
         </is>
       </c>
       <c r="X18" s="11" t="inlineStr">
         <is>
-          <t>04071G</t>
+          <t>04222G</t>
         </is>
       </c>
       <c r="Y18" s="11" t="inlineStr">
         <is>
-          <t>04052G</t>
+          <t>04241G</t>
         </is>
       </c>
       <c r="Z18" s="11" t="inlineStr">
         <is>
-          <t>04051G</t>
+          <t>04242G</t>
         </is>
       </c>
       <c r="AA18" s="11" t="inlineStr">
         <is>
-          <t>04032G</t>
+          <t>04261G</t>
         </is>
       </c>
       <c r="AB18" s="11" t="inlineStr">
         <is>
-          <t>04031G</t>
+          <t>04262G</t>
         </is>
       </c>
       <c r="AC18" s="11" t="inlineStr">
         <is>
-          <t>04012G</t>
+          <t>04281G</t>
         </is>
       </c>
       <c r="AD18" s="11" t="inlineStr">
         <is>
-          <t>04011G</t>
+          <t>04282G</t>
         </is>
       </c>
     </row>
     <row r="19" ht="35" customHeight="1">
-      <c r="A19" s="32" t="n"/>
-      <c r="B19" s="34" t="n"/>
-      <c r="C19" s="34" t="inlineStr">
-        <is>
-          <t>T2001527-</t>
-        </is>
-      </c>
-      <c r="D19" s="34" t="inlineStr">
-        <is>
-          <t>B1008786-</t>
-        </is>
-      </c>
-      <c r="E19" s="34" t="inlineStr">
-        <is>
-          <t>B1005273-</t>
-        </is>
-      </c>
-      <c r="F19" s="34" t="inlineStr">
-        <is>
-          <t>b1008401-</t>
-        </is>
-      </c>
-      <c r="G19" s="34" t="inlineStr">
-        <is>
-          <t>b1008628-</t>
-        </is>
-      </c>
-      <c r="H19" s="34" t="inlineStr">
-        <is>
-          <t>B2010240-</t>
-        </is>
-      </c>
-      <c r="I19" s="34" t="inlineStr">
-        <is>
-          <t>B1009157-</t>
-        </is>
-      </c>
-      <c r="J19" s="34" t="inlineStr">
-        <is>
-          <t>B1005971-</t>
-        </is>
-      </c>
-      <c r="K19" s="34" t="inlineStr">
-        <is>
-          <t>B1004929-</t>
-        </is>
-      </c>
-      <c r="L19" s="34" t="inlineStr">
-        <is>
-          <t>B1008137-</t>
-        </is>
-      </c>
-      <c r="M19" s="34" t="inlineStr">
-        <is>
-          <t>P1226296-</t>
-        </is>
-      </c>
-      <c r="N19" s="34" t="inlineStr">
-        <is>
-          <t>B2010299-</t>
-        </is>
-      </c>
-      <c r="O19" s="34" t="inlineStr">
-        <is>
-          <t>P1213656-</t>
-        </is>
-      </c>
-      <c r="P19" s="34" t="inlineStr">
-        <is>
-          <t>B2000680-</t>
-        </is>
-      </c>
-      <c r="Q19" s="34" t="inlineStr">
-        <is>
-          <t>T1000971-</t>
-        </is>
-      </c>
-      <c r="R19" s="34" t="inlineStr">
-        <is>
-          <t>B1009242-</t>
-        </is>
-      </c>
-      <c r="S19" s="34" t="inlineStr">
-        <is>
-          <t>B2010289-</t>
-        </is>
-      </c>
-      <c r="T19" s="34" t="inlineStr">
-        <is>
-          <t>B2000876-</t>
-        </is>
-      </c>
-      <c r="U19" s="34" t="inlineStr">
-        <is>
-          <t>b1007527-</t>
-        </is>
-      </c>
-      <c r="V19" s="34" t="inlineStr">
-        <is>
-          <t>P1231997-</t>
-        </is>
-      </c>
-      <c r="W19" s="34" t="inlineStr">
-        <is>
-          <t>B2000647-</t>
-        </is>
-      </c>
-      <c r="X19" s="34" t="n"/>
-      <c r="Y19" s="34" t="inlineStr">
-        <is>
-          <t>b1008300-</t>
-        </is>
-      </c>
-      <c r="Z19" s="34" t="inlineStr">
-        <is>
-          <t>T2000305-</t>
-        </is>
-      </c>
-      <c r="AA19" s="34" t="inlineStr">
-        <is>
-          <t>b1004429-</t>
-        </is>
-      </c>
-      <c r="AB19" s="34" t="inlineStr">
-        <is>
-          <t>B1008217-</t>
-        </is>
-      </c>
-      <c r="AC19" s="34" t="inlineStr">
-        <is>
-          <t>B1008771-</t>
-        </is>
-      </c>
-      <c r="AD19" s="34" t="n"/>
+      <c r="A19" s="30" t="n"/>
+      <c r="B19" s="32" t="n"/>
+      <c r="C19" s="32" t="inlineStr">
+        <is>
+          <t>B1007212-</t>
+        </is>
+      </c>
+      <c r="D19" s="32" t="inlineStr">
+        <is>
+          <t>t2000230-</t>
+        </is>
+      </c>
+      <c r="E19" s="32" t="n"/>
+      <c r="F19" s="32" t="n"/>
+      <c r="G19" s="32" t="inlineStr">
+        <is>
+          <t>B2011425-</t>
+        </is>
+      </c>
+      <c r="H19" s="32" t="inlineStr">
+        <is>
+          <t>P1210029-</t>
+        </is>
+      </c>
+      <c r="I19" s="32" t="inlineStr">
+        <is>
+          <t>m1012547-</t>
+        </is>
+      </c>
+      <c r="J19" s="32" t="inlineStr">
+        <is>
+          <t>B2000481-</t>
+        </is>
+      </c>
+      <c r="K19" s="32" t="inlineStr">
+        <is>
+          <t>B1004004-</t>
+        </is>
+      </c>
+      <c r="L19" s="32" t="n"/>
+      <c r="M19" s="32" t="inlineStr">
+        <is>
+          <t>b1004774-</t>
+        </is>
+      </c>
+      <c r="N19" s="32" t="inlineStr">
+        <is>
+          <t>B2000973-</t>
+        </is>
+      </c>
+      <c r="O19" s="32" t="inlineStr">
+        <is>
+          <t>B1007096-</t>
+        </is>
+      </c>
+      <c r="P19" s="32" t="inlineStr">
+        <is>
+          <t>M1012925-</t>
+        </is>
+      </c>
+      <c r="Q19" s="32" t="inlineStr">
+        <is>
+          <t>p1230884-</t>
+        </is>
+      </c>
+      <c r="R19" s="32" t="inlineStr">
+        <is>
+          <t>B1000173-</t>
+        </is>
+      </c>
+      <c r="S19" s="32" t="inlineStr">
+        <is>
+          <t>B2010290-</t>
+        </is>
+      </c>
+      <c r="T19" s="32" t="inlineStr">
+        <is>
+          <t>B1004699-</t>
+        </is>
+      </c>
+      <c r="U19" s="32" t="inlineStr">
+        <is>
+          <t>B1004286-</t>
+        </is>
+      </c>
+      <c r="V19" s="32" t="inlineStr">
+        <is>
+          <t>B1005010-</t>
+        </is>
+      </c>
+      <c r="W19" s="32" t="inlineStr">
+        <is>
+          <t>B1000152-</t>
+        </is>
+      </c>
+      <c r="X19" s="32" t="inlineStr">
+        <is>
+          <t>B1001256-</t>
+        </is>
+      </c>
+      <c r="Y19" s="32" t="inlineStr">
+        <is>
+          <t>m1016831-</t>
+        </is>
+      </c>
+      <c r="Z19" s="32" t="inlineStr">
+        <is>
+          <t>B1004247-</t>
+        </is>
+      </c>
+      <c r="AA19" s="32" t="inlineStr">
+        <is>
+          <t>b1000248-</t>
+        </is>
+      </c>
+      <c r="AB19" s="32" t="inlineStr">
+        <is>
+          <t>B2009912-</t>
+        </is>
+      </c>
+      <c r="AC19" s="32" t="inlineStr">
+        <is>
+          <t>B2000695-</t>
+        </is>
+      </c>
+      <c r="AD19" s="32" t="inlineStr">
+        <is>
+          <t>B1006215-</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="n"/>
@@ -3292,271 +3321,278 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>04272F</t>
+          <t>04021F</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>04271F</t>
+          <t>04022F</t>
         </is>
       </c>
       <c r="E20" s="11" t="inlineStr">
         <is>
-          <t>04252F</t>
+          <t>04041F</t>
         </is>
       </c>
       <c r="F20" s="11" t="inlineStr">
         <is>
-          <t>04251F</t>
+          <t>04042F</t>
         </is>
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>04232F</t>
+          <t>04061F</t>
         </is>
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>04231F</t>
+          <t>04062F</t>
         </is>
       </c>
       <c r="I20" s="11" t="inlineStr">
         <is>
-          <t>04212F</t>
+          <t>04081F</t>
         </is>
       </c>
       <c r="J20" s="11" t="inlineStr">
         <is>
-          <t>04211F</t>
+          <t>04082F</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr">
         <is>
-          <t>04192F</t>
+          <t>04101F</t>
         </is>
       </c>
       <c r="L20" s="11" t="inlineStr">
         <is>
-          <t>04191F</t>
+          <t>04102F</t>
         </is>
       </c>
       <c r="M20" s="11" t="inlineStr">
         <is>
-          <t>04172F</t>
+          <t>04121F</t>
         </is>
       </c>
       <c r="N20" s="11" t="inlineStr">
         <is>
-          <t>04171F</t>
+          <t>04122F</t>
         </is>
       </c>
       <c r="O20" s="11" t="inlineStr">
         <is>
-          <t>04152F</t>
+          <t>04141F</t>
         </is>
       </c>
       <c r="P20" s="11" t="inlineStr">
         <is>
-          <t>04151F</t>
+          <t>04142F</t>
         </is>
       </c>
       <c r="Q20" s="11" t="inlineStr">
         <is>
-          <t>04132F</t>
+          <t>04161F</t>
         </is>
       </c>
       <c r="R20" s="11" t="inlineStr">
         <is>
-          <t>04131F</t>
+          <t>04162F</t>
         </is>
       </c>
       <c r="S20" s="11" t="inlineStr">
         <is>
-          <t>04112F</t>
+          <t>04181F</t>
         </is>
       </c>
       <c r="T20" s="11" t="inlineStr">
         <is>
-          <t>04111F</t>
+          <t>04182F</t>
         </is>
       </c>
       <c r="U20" s="11" t="inlineStr">
         <is>
-          <t>04092F</t>
+          <t>04201F</t>
         </is>
       </c>
       <c r="V20" s="11" t="inlineStr">
         <is>
-          <t>04091F</t>
+          <t>04202F</t>
         </is>
       </c>
       <c r="W20" s="11" t="inlineStr">
         <is>
-          <t>04072F</t>
+          <t>04221F</t>
         </is>
       </c>
       <c r="X20" s="11" t="inlineStr">
         <is>
-          <t>04071F</t>
+          <t>04222F</t>
         </is>
       </c>
       <c r="Y20" s="11" t="inlineStr">
         <is>
-          <t>04052F</t>
+          <t>04241F</t>
         </is>
       </c>
       <c r="Z20" s="11" t="inlineStr">
         <is>
-          <t>04051F</t>
+          <t>04242F</t>
         </is>
       </c>
       <c r="AA20" s="11" t="inlineStr">
         <is>
-          <t>04032F</t>
+          <t>04261F</t>
         </is>
       </c>
       <c r="AB20" s="11" t="inlineStr">
         <is>
-          <t>04031F</t>
+          <t>04262F</t>
         </is>
       </c>
       <c r="AC20" s="11" t="inlineStr">
         <is>
-          <t>04012F</t>
+          <t>04281F</t>
         </is>
       </c>
       <c r="AD20" s="11" t="inlineStr">
         <is>
-          <t>04011F</t>
+          <t>04282F</t>
         </is>
       </c>
     </row>
     <row r="21" ht="35" customHeight="1">
-      <c r="A21" s="32" t="n"/>
-      <c r="B21" s="34" t="n"/>
-      <c r="C21" s="34" t="n"/>
-      <c r="D21" s="34" t="inlineStr">
-        <is>
-          <t>b1006126-</t>
-        </is>
-      </c>
-      <c r="E21" s="34" t="inlineStr">
-        <is>
-          <t>b2009969-</t>
-        </is>
-      </c>
-      <c r="F21" s="34" t="inlineStr">
-        <is>
-          <t>W1000016-</t>
-        </is>
-      </c>
-      <c r="G21" s="34" t="inlineStr">
-        <is>
-          <t>b1005844-</t>
-        </is>
-      </c>
-      <c r="H21" s="34" t="inlineStr">
-        <is>
-          <t>B2000948-</t>
-        </is>
-      </c>
-      <c r="I21" s="34" t="inlineStr">
-        <is>
-          <t>B1001209-</t>
-        </is>
-      </c>
-      <c r="J21" s="34" t="inlineStr">
-        <is>
-          <t>b1005571-</t>
-        </is>
-      </c>
-      <c r="K21" s="34" t="inlineStr">
-        <is>
-          <t>b1006249-</t>
-        </is>
-      </c>
-      <c r="L21" s="34" t="inlineStr">
-        <is>
-          <t>B2000405-</t>
-        </is>
-      </c>
-      <c r="M21" s="34" t="inlineStr">
-        <is>
-          <t>B2010489-</t>
-        </is>
-      </c>
-      <c r="N21" s="34" t="inlineStr">
-        <is>
-          <t>B2010798-</t>
-        </is>
-      </c>
-      <c r="O21" s="35" t="inlineStr">
-        <is>
-          <t>B1006042-
-B1007390-</t>
-        </is>
-      </c>
-      <c r="P21" s="34" t="n"/>
-      <c r="Q21" s="34" t="inlineStr">
-        <is>
-          <t>b1007399-</t>
-        </is>
-      </c>
-      <c r="R21" s="34" t="inlineStr">
-        <is>
-          <t>b2010958-</t>
-        </is>
-      </c>
-      <c r="S21" s="34" t="inlineStr">
-        <is>
-          <t>B1007920-</t>
-        </is>
-      </c>
-      <c r="T21" s="34" t="inlineStr">
-        <is>
-          <t>B1004849-</t>
-        </is>
-      </c>
-      <c r="U21" s="34" t="inlineStr">
-        <is>
-          <t>P1058583-</t>
-        </is>
-      </c>
-      <c r="V21" s="34" t="inlineStr">
-        <is>
-          <t>b1005319-</t>
-        </is>
-      </c>
-      <c r="W21" s="34" t="n"/>
-      <c r="X21" s="34" t="inlineStr">
-        <is>
-          <t>B1005811-</t>
-        </is>
-      </c>
-      <c r="Y21" s="34" t="inlineStr">
-        <is>
-          <t>B2010433-</t>
-        </is>
-      </c>
-      <c r="Z21" s="34" t="n"/>
-      <c r="AA21" s="34" t="inlineStr">
-        <is>
-          <t>B2000932-</t>
-        </is>
-      </c>
-      <c r="AB21" s="34" t="inlineStr">
-        <is>
-          <t>B2011275-</t>
-        </is>
-      </c>
-      <c r="AC21" s="34" t="inlineStr">
-        <is>
-          <t>B1007276-</t>
-        </is>
-      </c>
-      <c r="AD21" s="34" t="inlineStr">
-        <is>
-          <t>B2009953-</t>
+      <c r="A21" s="30" t="n"/>
+      <c r="B21" s="32" t="n"/>
+      <c r="C21" s="32" t="inlineStr">
+        <is>
+          <t>B2011279-</t>
+        </is>
+      </c>
+      <c r="D21" s="32" t="inlineStr">
+        <is>
+          <t>b1006187-</t>
+        </is>
+      </c>
+      <c r="E21" s="32" t="inlineStr">
+        <is>
+          <t>B2011462-</t>
+        </is>
+      </c>
+      <c r="F21" s="32" t="inlineStr">
+        <is>
+          <t>B2010266-</t>
+        </is>
+      </c>
+      <c r="G21" s="32" t="inlineStr">
+        <is>
+          <t>B2000502-</t>
+        </is>
+      </c>
+      <c r="H21" s="32" t="inlineStr">
+        <is>
+          <t>T1000983-</t>
+        </is>
+      </c>
+      <c r="I21" s="32" t="inlineStr">
+        <is>
+          <t>b1004077-</t>
+        </is>
+      </c>
+      <c r="J21" s="32" t="n"/>
+      <c r="K21" s="32" t="inlineStr">
+        <is>
+          <t>B2000629-</t>
+        </is>
+      </c>
+      <c r="L21" s="32" t="inlineStr">
+        <is>
+          <t>B1007624-</t>
+        </is>
+      </c>
+      <c r="M21" s="32" t="n"/>
+      <c r="N21" s="32" t="inlineStr">
+        <is>
+          <t>T2001829-</t>
+        </is>
+      </c>
+      <c r="O21" s="32" t="inlineStr">
+        <is>
+          <t>B1005388-</t>
+        </is>
+      </c>
+      <c r="P21" s="32" t="inlineStr">
+        <is>
+          <t>B2010568-</t>
+        </is>
+      </c>
+      <c r="Q21" s="32" t="inlineStr">
+        <is>
+          <t>B1007282-</t>
+        </is>
+      </c>
+      <c r="R21" s="32" t="inlineStr">
+        <is>
+          <t>B1008636-</t>
+        </is>
+      </c>
+      <c r="S21" s="32" t="inlineStr">
+        <is>
+          <t>B1009172-</t>
+        </is>
+      </c>
+      <c r="T21" s="32" t="inlineStr">
+        <is>
+          <t>B1006365-</t>
+        </is>
+      </c>
+      <c r="U21" s="32" t="inlineStr">
+        <is>
+          <t>b1000207-</t>
+        </is>
+      </c>
+      <c r="V21" s="32" t="inlineStr">
+        <is>
+          <t>B1007691-</t>
+        </is>
+      </c>
+      <c r="W21" s="32" t="inlineStr">
+        <is>
+          <t>T2001855-</t>
+        </is>
+      </c>
+      <c r="X21" s="32" t="inlineStr">
+        <is>
+          <t>B1007231-</t>
+        </is>
+      </c>
+      <c r="Y21" s="32" t="inlineStr">
+        <is>
+          <t>B2010095-</t>
+        </is>
+      </c>
+      <c r="Z21" s="32" t="inlineStr">
+        <is>
+          <t>B2011389-</t>
+        </is>
+      </c>
+      <c r="AA21" s="32" t="inlineStr">
+        <is>
+          <t>B1007275-</t>
+        </is>
+      </c>
+      <c r="AB21" s="32" t="inlineStr">
+        <is>
+          <t>B1007448-</t>
+        </is>
+      </c>
+      <c r="AC21" s="32" t="inlineStr">
+        <is>
+          <t>B2010330-</t>
+        </is>
+      </c>
+      <c r="AD21" s="32" t="inlineStr">
+        <is>
+          <t>B1007899-</t>
         </is>
       </c>
     </row>
@@ -3569,282 +3605,286 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>04272E</t>
+          <t>04021E</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>04271E</t>
+          <t>04022E</t>
         </is>
       </c>
       <c r="E22" s="11" t="inlineStr">
         <is>
-          <t>04252E</t>
+          <t>04041E</t>
         </is>
       </c>
       <c r="F22" s="11" t="inlineStr">
         <is>
-          <t>04251E</t>
+          <t>04042E</t>
         </is>
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
-          <t>04232E</t>
+          <t>04061E</t>
         </is>
       </c>
       <c r="H22" s="11" t="inlineStr">
         <is>
-          <t>04231E</t>
+          <t>04062E</t>
         </is>
       </c>
       <c r="I22" s="11" t="inlineStr">
         <is>
-          <t>04212E</t>
+          <t>04081E</t>
         </is>
       </c>
       <c r="J22" s="11" t="inlineStr">
         <is>
-          <t>04211E</t>
+          <t>04082E</t>
         </is>
       </c>
       <c r="K22" s="11" t="inlineStr">
         <is>
-          <t>04192E</t>
+          <t>04101E</t>
         </is>
       </c>
       <c r="L22" s="11" t="inlineStr">
         <is>
-          <t>04191E</t>
+          <t>04102E</t>
         </is>
       </c>
       <c r="M22" s="11" t="inlineStr">
         <is>
-          <t>04172E</t>
+          <t>04121E</t>
         </is>
       </c>
       <c r="N22" s="11" t="inlineStr">
         <is>
-          <t>04171E</t>
+          <t>04122E</t>
         </is>
       </c>
       <c r="O22" s="11" t="inlineStr">
         <is>
-          <t>04152E</t>
+          <t>04141E</t>
         </is>
       </c>
       <c r="P22" s="11" t="inlineStr">
         <is>
-          <t>04151E</t>
+          <t>04142E</t>
         </is>
       </c>
       <c r="Q22" s="11" t="inlineStr">
         <is>
-          <t>04132E</t>
+          <t>04161E</t>
         </is>
       </c>
       <c r="R22" s="11" t="inlineStr">
         <is>
-          <t>04131E</t>
+          <t>04162E</t>
         </is>
       </c>
       <c r="S22" s="11" t="inlineStr">
         <is>
-          <t>04112E</t>
+          <t>04181E</t>
         </is>
       </c>
       <c r="T22" s="11" t="inlineStr">
         <is>
-          <t>04111E</t>
+          <t>04182E</t>
         </is>
       </c>
       <c r="U22" s="11" t="inlineStr">
         <is>
-          <t>04092E</t>
+          <t>04201E</t>
         </is>
       </c>
       <c r="V22" s="11" t="inlineStr">
         <is>
-          <t>04091E</t>
+          <t>04202E</t>
         </is>
       </c>
       <c r="W22" s="11" t="inlineStr">
         <is>
-          <t>04072E</t>
+          <t>04221E</t>
         </is>
       </c>
       <c r="X22" s="11" t="inlineStr">
         <is>
-          <t>04071E</t>
+          <t>04222E</t>
         </is>
       </c>
       <c r="Y22" s="11" t="inlineStr">
         <is>
-          <t>04052E</t>
+          <t>04241E</t>
         </is>
       </c>
       <c r="Z22" s="11" t="inlineStr">
         <is>
-          <t>04051E</t>
+          <t>04242E</t>
         </is>
       </c>
       <c r="AA22" s="11" t="inlineStr">
         <is>
-          <t>04032E</t>
+          <t>04261E</t>
         </is>
       </c>
       <c r="AB22" s="11" t="inlineStr">
         <is>
-          <t>04031E</t>
+          <t>04262E</t>
         </is>
       </c>
       <c r="AC22" s="11" t="inlineStr">
         <is>
-          <t>04012E</t>
+          <t>04281E</t>
         </is>
       </c>
       <c r="AD22" s="11" t="inlineStr">
         <is>
-          <t>04011E</t>
+          <t>04282E</t>
         </is>
       </c>
     </row>
     <row r="23" ht="35" customHeight="1">
-      <c r="A23" s="32" t="n"/>
-      <c r="B23" s="34" t="n"/>
-      <c r="C23" s="34" t="inlineStr">
-        <is>
-          <t>B1007406-</t>
-        </is>
-      </c>
-      <c r="D23" s="34" t="inlineStr">
-        <is>
-          <t>B2010954-</t>
-        </is>
-      </c>
-      <c r="E23" s="34" t="inlineStr">
-        <is>
-          <t>B2010545-</t>
-        </is>
-      </c>
-      <c r="F23" s="34" t="inlineStr">
-        <is>
-          <t>B1008699-</t>
-        </is>
-      </c>
-      <c r="G23" s="34" t="inlineStr">
-        <is>
-          <t>T2002990-</t>
-        </is>
-      </c>
-      <c r="H23" s="34" t="inlineStr">
-        <is>
-          <t>B1004564-</t>
-        </is>
-      </c>
-      <c r="I23" s="34" t="inlineStr">
-        <is>
-          <t>b1008437-</t>
-        </is>
-      </c>
-      <c r="J23" s="34" t="n"/>
-      <c r="K23" s="34" t="inlineStr">
-        <is>
-          <t>B2000622-</t>
-        </is>
-      </c>
-      <c r="L23" s="34" t="inlineStr">
-        <is>
-          <t>b2000497-</t>
-        </is>
-      </c>
-      <c r="M23" s="34" t="inlineStr">
-        <is>
-          <t>B2000964-</t>
-        </is>
-      </c>
-      <c r="N23" s="34" t="inlineStr">
-        <is>
-          <t>b2000840-</t>
-        </is>
-      </c>
-      <c r="O23" s="34" t="inlineStr">
-        <is>
-          <t>B2010741-</t>
-        </is>
-      </c>
-      <c r="P23" s="34" t="inlineStr">
-        <is>
-          <t>M1014469-</t>
-        </is>
-      </c>
-      <c r="Q23" s="34" t="inlineStr">
-        <is>
-          <t>b1007378-</t>
-        </is>
-      </c>
-      <c r="R23" s="34" t="inlineStr">
-        <is>
-          <t>p1229487-</t>
-        </is>
-      </c>
-      <c r="S23" s="34" t="inlineStr">
-        <is>
-          <t>t2001139-</t>
-        </is>
-      </c>
-      <c r="T23" s="34" t="inlineStr">
-        <is>
-          <t>B2011388-</t>
-        </is>
-      </c>
-      <c r="U23" s="34" t="inlineStr">
-        <is>
-          <t>M1016846-</t>
-        </is>
-      </c>
-      <c r="V23" s="34" t="inlineStr">
-        <is>
-          <t>b1007268-</t>
-        </is>
-      </c>
-      <c r="W23" s="34" t="inlineStr">
-        <is>
-          <t>B2009906-</t>
-        </is>
-      </c>
-      <c r="X23" s="34" t="inlineStr">
-        <is>
-          <t>t2001220-</t>
-        </is>
-      </c>
-      <c r="Y23" s="34" t="inlineStr">
-        <is>
-          <t>B1006174-</t>
-        </is>
-      </c>
-      <c r="Z23" s="34" t="inlineStr">
-        <is>
-          <t>B2011123-</t>
-        </is>
-      </c>
-      <c r="AA23" s="34" t="inlineStr">
-        <is>
-          <t>B1000202-</t>
-        </is>
-      </c>
-      <c r="AB23" s="34" t="inlineStr">
-        <is>
-          <t>t2001182-</t>
-        </is>
-      </c>
-      <c r="AC23" s="34" t="inlineStr">
-        <is>
-          <t>B2011271-</t>
-        </is>
-      </c>
-      <c r="AD23" s="34" t="inlineStr">
-        <is>
-          <t>B2011282-</t>
+      <c r="A23" s="30" t="n"/>
+      <c r="B23" s="32" t="n"/>
+      <c r="C23" s="32" t="inlineStr">
+        <is>
+          <t>B2011467-</t>
+        </is>
+      </c>
+      <c r="D23" s="32" t="inlineStr">
+        <is>
+          <t>b2010650-</t>
+        </is>
+      </c>
+      <c r="E23" s="32" t="inlineStr">
+        <is>
+          <t>X1000180-</t>
+        </is>
+      </c>
+      <c r="F23" s="32" t="inlineStr">
+        <is>
+          <t>B1005364-</t>
+        </is>
+      </c>
+      <c r="G23" s="32" t="inlineStr">
+        <is>
+          <t>T2001540-</t>
+        </is>
+      </c>
+      <c r="H23" s="32" t="inlineStr">
+        <is>
+          <t>B2011281-</t>
+        </is>
+      </c>
+      <c r="I23" s="32" t="inlineStr">
+        <is>
+          <t>T2001845-</t>
+        </is>
+      </c>
+      <c r="J23" s="32" t="inlineStr">
+        <is>
+          <t>E1000191-</t>
+        </is>
+      </c>
+      <c r="K23" s="32" t="inlineStr">
+        <is>
+          <t>B1000178-</t>
+        </is>
+      </c>
+      <c r="L23" s="32" t="inlineStr">
+        <is>
+          <t>B1006634-</t>
+        </is>
+      </c>
+      <c r="M23" s="32" t="inlineStr">
+        <is>
+          <t>B2009996-</t>
+        </is>
+      </c>
+      <c r="N23" s="32" t="inlineStr">
+        <is>
+          <t>t2001510-</t>
+        </is>
+      </c>
+      <c r="O23" s="32" t="inlineStr">
+        <is>
+          <t>B2010541-</t>
+        </is>
+      </c>
+      <c r="P23" s="32" t="inlineStr">
+        <is>
+          <t>B1000285-</t>
+        </is>
+      </c>
+      <c r="Q23" s="32" t="inlineStr">
+        <is>
+          <t>B2010476-</t>
+        </is>
+      </c>
+      <c r="R23" s="32" t="inlineStr">
+        <is>
+          <t>t1000127-</t>
+        </is>
+      </c>
+      <c r="S23" s="32" t="inlineStr">
+        <is>
+          <t>B1006210-</t>
+        </is>
+      </c>
+      <c r="T23" s="32" t="inlineStr">
+        <is>
+          <t>B1008264-</t>
+        </is>
+      </c>
+      <c r="U23" s="32" t="inlineStr">
+        <is>
+          <t>b2011142-</t>
+        </is>
+      </c>
+      <c r="V23" s="32" t="inlineStr">
+        <is>
+          <t>P1206291-</t>
+        </is>
+      </c>
+      <c r="W23" s="32" t="inlineStr">
+        <is>
+          <t>b1007136-</t>
+        </is>
+      </c>
+      <c r="X23" s="32" t="inlineStr">
+        <is>
+          <t>B1007281-</t>
+        </is>
+      </c>
+      <c r="Y23" s="32" t="inlineStr">
+        <is>
+          <t>B1004181-</t>
+        </is>
+      </c>
+      <c r="Z23" s="32" t="inlineStr">
+        <is>
+          <t>B2011393-</t>
+        </is>
+      </c>
+      <c r="AA23" s="32" t="inlineStr">
+        <is>
+          <t>B2000123-</t>
+        </is>
+      </c>
+      <c r="AB23" s="32" t="inlineStr">
+        <is>
+          <t>b2010920-</t>
+        </is>
+      </c>
+      <c r="AC23" s="32" t="inlineStr">
+        <is>
+          <t>P1229700-</t>
+        </is>
+      </c>
+      <c r="AD23" s="32" t="inlineStr">
+        <is>
+          <t>B1004654-</t>
         </is>
       </c>
     </row>
@@ -3857,275 +3897,288 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>04272D</t>
+          <t>04021D</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>04271D</t>
+          <t>04022D</t>
         </is>
       </c>
       <c r="E24" s="11" t="inlineStr">
         <is>
-          <t>04252D</t>
+          <t>04041D</t>
         </is>
       </c>
       <c r="F24" s="11" t="inlineStr">
         <is>
-          <t>04251D</t>
+          <t>04042D</t>
         </is>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t>04232D</t>
+          <t>04061D</t>
         </is>
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t>04231D</t>
+          <t>04062D</t>
         </is>
       </c>
       <c r="I24" s="11" t="inlineStr">
         <is>
-          <t>04212D</t>
+          <t>04081D</t>
         </is>
       </c>
       <c r="J24" s="11" t="inlineStr">
         <is>
-          <t>04211D</t>
+          <t>04082D</t>
         </is>
       </c>
       <c r="K24" s="11" t="inlineStr">
         <is>
-          <t>04192D</t>
+          <t>04101D</t>
         </is>
       </c>
       <c r="L24" s="11" t="inlineStr">
         <is>
-          <t>04191D</t>
+          <t>04102D</t>
         </is>
       </c>
       <c r="M24" s="11" t="inlineStr">
         <is>
-          <t>04172D</t>
+          <t>04121D</t>
         </is>
       </c>
       <c r="N24" s="11" t="inlineStr">
         <is>
-          <t>04171D</t>
+          <t>04122D</t>
         </is>
       </c>
       <c r="O24" s="11" t="inlineStr">
         <is>
-          <t>04152D</t>
+          <t>04141D</t>
         </is>
       </c>
       <c r="P24" s="11" t="inlineStr">
         <is>
-          <t>04151D</t>
+          <t>04142D</t>
         </is>
       </c>
       <c r="Q24" s="11" t="inlineStr">
         <is>
-          <t>04132D</t>
+          <t>04161D</t>
         </is>
       </c>
       <c r="R24" s="11" t="inlineStr">
         <is>
-          <t>04131D</t>
+          <t>04162D</t>
         </is>
       </c>
       <c r="S24" s="11" t="inlineStr">
         <is>
-          <t>04112D</t>
+          <t>04181D</t>
         </is>
       </c>
       <c r="T24" s="11" t="inlineStr">
         <is>
-          <t>04111D</t>
+          <t>04182D</t>
         </is>
       </c>
       <c r="U24" s="11" t="inlineStr">
         <is>
-          <t>04092D</t>
+          <t>04201D</t>
         </is>
       </c>
       <c r="V24" s="11" t="inlineStr">
         <is>
-          <t>04091D</t>
+          <t>04202D</t>
         </is>
       </c>
       <c r="W24" s="11" t="inlineStr">
         <is>
-          <t>04072D</t>
+          <t>04221D</t>
         </is>
       </c>
       <c r="X24" s="11" t="inlineStr">
         <is>
-          <t>04071D</t>
+          <t>04222D</t>
         </is>
       </c>
       <c r="Y24" s="11" t="inlineStr">
         <is>
-          <t>04052D</t>
+          <t>04241D</t>
         </is>
       </c>
       <c r="Z24" s="11" t="inlineStr">
         <is>
-          <t>04051D</t>
+          <t>04242D</t>
         </is>
       </c>
       <c r="AA24" s="11" t="inlineStr">
         <is>
-          <t>04032D</t>
+          <t>04261D</t>
         </is>
       </c>
       <c r="AB24" s="11" t="inlineStr">
         <is>
-          <t>04031D</t>
+          <t>04262D</t>
         </is>
       </c>
       <c r="AC24" s="11" t="inlineStr">
         <is>
-          <t>04012D</t>
+          <t>04281D</t>
         </is>
       </c>
       <c r="AD24" s="11" t="inlineStr">
         <is>
-          <t>04011D</t>
+          <t>04282D</t>
         </is>
       </c>
     </row>
     <row r="25" ht="35" customHeight="1">
-      <c r="A25" s="32" t="n"/>
-      <c r="B25" s="34" t="n"/>
-      <c r="C25" s="34" t="inlineStr">
-        <is>
-          <t>B2010182-</t>
-        </is>
-      </c>
-      <c r="D25" s="34" t="inlineStr">
-        <is>
-          <t>B1004995-</t>
-        </is>
-      </c>
-      <c r="E25" s="34" t="inlineStr">
-        <is>
-          <t>B2010936-</t>
-        </is>
-      </c>
-      <c r="F25" s="34" t="inlineStr">
-        <is>
-          <t>B1008146-</t>
-        </is>
-      </c>
-      <c r="G25" s="34" t="inlineStr">
-        <is>
-          <t>b1007883-</t>
-        </is>
-      </c>
-      <c r="H25" s="34" t="inlineStr">
-        <is>
-          <t>b1005388-</t>
-        </is>
-      </c>
-      <c r="I25" s="34" t="inlineStr">
-        <is>
-          <t>B2011255-</t>
-        </is>
-      </c>
-      <c r="J25" s="34" t="inlineStr">
-        <is>
-          <t>B2000753-</t>
-        </is>
-      </c>
-      <c r="K25" s="34" t="n"/>
-      <c r="L25" s="35" t="inlineStr">
-        <is>
-          <t>B2000272-
-X1000120-</t>
-        </is>
-      </c>
-      <c r="M25" s="34" t="n"/>
-      <c r="N25" s="35" t="inlineStr">
-        <is>
-          <t>T2001966-
-x1000138-</t>
-        </is>
-      </c>
-      <c r="O25" s="34" t="inlineStr">
-        <is>
-          <t>b1001284-</t>
-        </is>
-      </c>
-      <c r="P25" s="34" t="inlineStr">
-        <is>
-          <t>B1007625-</t>
-        </is>
-      </c>
-      <c r="Q25" s="34" t="inlineStr">
-        <is>
-          <t>b1006780-</t>
-        </is>
-      </c>
-      <c r="R25" s="34" t="inlineStr">
-        <is>
-          <t>b1008459-</t>
-        </is>
-      </c>
-      <c r="S25" s="35" t="inlineStr">
-        <is>
-          <t>T2001821-
-t2001188-</t>
-        </is>
-      </c>
-      <c r="T25" s="34" t="n"/>
-      <c r="U25" s="34" t="inlineStr">
-        <is>
-          <t>M1013203-</t>
-        </is>
-      </c>
-      <c r="V25" s="34" t="inlineStr">
-        <is>
-          <t>m1013153-</t>
-        </is>
-      </c>
-      <c r="W25" s="34" t="inlineStr">
-        <is>
-          <t>B2010333-</t>
-        </is>
-      </c>
-      <c r="X25" s="34" t="inlineStr">
-        <is>
-          <t>T2002698-</t>
-        </is>
-      </c>
-      <c r="Y25" s="34" t="inlineStr">
-        <is>
-          <t>M1015398-</t>
-        </is>
-      </c>
-      <c r="Z25" s="34" t="inlineStr">
-        <is>
-          <t>B2010897-</t>
-        </is>
-      </c>
-      <c r="AA25" s="34" t="inlineStr">
-        <is>
-          <t>B2011266-</t>
-        </is>
-      </c>
-      <c r="AB25" s="34" t="inlineStr">
-        <is>
-          <t>b2011285-</t>
-        </is>
-      </c>
-      <c r="AC25" s="34" t="inlineStr">
-        <is>
-          <t>B2010859-</t>
-        </is>
-      </c>
-      <c r="AD25" s="34" t="n"/>
+      <c r="A25" s="30" t="n"/>
+      <c r="B25" s="32" t="n"/>
+      <c r="C25" s="32" t="inlineStr">
+        <is>
+          <t>B2000359-</t>
+        </is>
+      </c>
+      <c r="D25" s="32" t="inlineStr">
+        <is>
+          <t>B1005243-</t>
+        </is>
+      </c>
+      <c r="E25" s="32" t="inlineStr">
+        <is>
+          <t>B1006735-</t>
+        </is>
+      </c>
+      <c r="F25" s="32" t="inlineStr">
+        <is>
+          <t>T2001163-</t>
+        </is>
+      </c>
+      <c r="G25" s="32" t="inlineStr">
+        <is>
+          <t>P1234338-</t>
+        </is>
+      </c>
+      <c r="H25" s="32" t="inlineStr">
+        <is>
+          <t>B2010395-</t>
+        </is>
+      </c>
+      <c r="I25" s="32" t="inlineStr">
+        <is>
+          <t>B2010786-</t>
+        </is>
+      </c>
+      <c r="J25" s="32" t="inlineStr">
+        <is>
+          <t>B1007811-</t>
+        </is>
+      </c>
+      <c r="K25" s="32" t="inlineStr">
+        <is>
+          <t>E1000160-</t>
+        </is>
+      </c>
+      <c r="L25" s="32" t="inlineStr">
+        <is>
+          <t>B2011534-</t>
+        </is>
+      </c>
+      <c r="M25" s="32" t="inlineStr">
+        <is>
+          <t>B1006249-</t>
+        </is>
+      </c>
+      <c r="N25" s="32" t="inlineStr">
+        <is>
+          <t>b2000276-</t>
+        </is>
+      </c>
+      <c r="O25" s="32" t="inlineStr">
+        <is>
+          <t>B2009922-</t>
+        </is>
+      </c>
+      <c r="P25" s="32" t="inlineStr">
+        <is>
+          <t>B1007398-</t>
+        </is>
+      </c>
+      <c r="Q25" s="32" t="inlineStr">
+        <is>
+          <t>b1008045-</t>
+        </is>
+      </c>
+      <c r="R25" s="32" t="inlineStr">
+        <is>
+          <t>B2000167-</t>
+        </is>
+      </c>
+      <c r="S25" s="32" t="inlineStr">
+        <is>
+          <t>b1008667-</t>
+        </is>
+      </c>
+      <c r="T25" s="32" t="inlineStr">
+        <is>
+          <t>B2010155-</t>
+        </is>
+      </c>
+      <c r="U25" s="32" t="inlineStr">
+        <is>
+          <t>B1007808-</t>
+        </is>
+      </c>
+      <c r="V25" s="32" t="inlineStr">
+        <is>
+          <t>T2001449-</t>
+        </is>
+      </c>
+      <c r="W25" s="32" t="inlineStr">
+        <is>
+          <t>B1007334-</t>
+        </is>
+      </c>
+      <c r="X25" s="32" t="inlineStr">
+        <is>
+          <t>B1009161-</t>
+        </is>
+      </c>
+      <c r="Y25" s="32" t="inlineStr">
+        <is>
+          <t>B2000877-</t>
+        </is>
+      </c>
+      <c r="Z25" s="32" t="inlineStr">
+        <is>
+          <t>B2000510-</t>
+        </is>
+      </c>
+      <c r="AA25" s="32" t="inlineStr">
+        <is>
+          <t>B1000242-</t>
+        </is>
+      </c>
+      <c r="AB25" s="32" t="inlineStr">
+        <is>
+          <t>B1005018-</t>
+        </is>
+      </c>
+      <c r="AC25" s="32" t="inlineStr">
+        <is>
+          <t>B2011315-</t>
+        </is>
+      </c>
+      <c r="AD25" s="32" t="inlineStr">
+        <is>
+          <t>B2010229-</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="22" t="n"/>
@@ -4136,286 +4189,286 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>04272C</t>
+          <t>04021C</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>04271C</t>
+          <t>04022C</t>
         </is>
       </c>
       <c r="E26" s="11" t="inlineStr">
         <is>
-          <t>04252C</t>
+          <t>04041C</t>
         </is>
       </c>
       <c r="F26" s="11" t="inlineStr">
         <is>
-          <t>04251C</t>
+          <t>04042C</t>
         </is>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
-          <t>04232C</t>
+          <t>04061C</t>
         </is>
       </c>
       <c r="H26" s="11" t="inlineStr">
         <is>
-          <t>04231C</t>
+          <t>04062C</t>
         </is>
       </c>
       <c r="I26" s="11" t="inlineStr">
         <is>
-          <t>04212C</t>
+          <t>04081C</t>
         </is>
       </c>
       <c r="J26" s="11" t="inlineStr">
         <is>
-          <t>04211C</t>
+          <t>04082C</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr">
         <is>
-          <t>04192C</t>
+          <t>04101C</t>
         </is>
       </c>
       <c r="L26" s="11" t="inlineStr">
         <is>
-          <t>04191C</t>
+          <t>04102C</t>
         </is>
       </c>
       <c r="M26" s="11" t="inlineStr">
         <is>
-          <t>04172C</t>
+          <t>04121C</t>
         </is>
       </c>
       <c r="N26" s="11" t="inlineStr">
         <is>
-          <t>04171C</t>
+          <t>04122C</t>
         </is>
       </c>
       <c r="O26" s="11" t="inlineStr">
         <is>
-          <t>04152C</t>
+          <t>04141C</t>
         </is>
       </c>
       <c r="P26" s="11" t="inlineStr">
         <is>
-          <t>04151C</t>
+          <t>04142C</t>
         </is>
       </c>
       <c r="Q26" s="11" t="inlineStr">
         <is>
-          <t>04132C</t>
+          <t>04161C</t>
         </is>
       </c>
       <c r="R26" s="11" t="inlineStr">
         <is>
-          <t>04131C</t>
+          <t>04162C</t>
         </is>
       </c>
       <c r="S26" s="11" t="inlineStr">
         <is>
-          <t>04112C</t>
+          <t>04181C</t>
         </is>
       </c>
       <c r="T26" s="11" t="inlineStr">
         <is>
-          <t>04111C</t>
+          <t>04182C</t>
         </is>
       </c>
       <c r="U26" s="11" t="inlineStr">
         <is>
-          <t>04092C</t>
+          <t>04201C</t>
         </is>
       </c>
       <c r="V26" s="11" t="inlineStr">
         <is>
-          <t>04091C</t>
+          <t>04202C</t>
         </is>
       </c>
       <c r="W26" s="11" t="inlineStr">
         <is>
-          <t>04072C</t>
+          <t>04221C</t>
         </is>
       </c>
       <c r="X26" s="11" t="inlineStr">
         <is>
-          <t>04071C</t>
+          <t>04222C</t>
         </is>
       </c>
       <c r="Y26" s="11" t="inlineStr">
         <is>
-          <t>04052C</t>
+          <t>04241C</t>
         </is>
       </c>
       <c r="Z26" s="11" t="inlineStr">
         <is>
-          <t>04051C</t>
+          <t>04242C</t>
         </is>
       </c>
       <c r="AA26" s="11" t="inlineStr">
         <is>
-          <t>04032C</t>
+          <t>04261C</t>
         </is>
       </c>
       <c r="AB26" s="11" t="inlineStr">
         <is>
-          <t>04031C</t>
+          <t>04262C</t>
         </is>
       </c>
       <c r="AC26" s="11" t="inlineStr">
         <is>
-          <t>04012C</t>
+          <t>04281C</t>
         </is>
       </c>
       <c r="AD26" s="11" t="inlineStr">
         <is>
-          <t>04011C</t>
+          <t>04282C</t>
         </is>
       </c>
     </row>
     <row r="27" ht="35" customHeight="1">
-      <c r="A27" s="32" t="n"/>
-      <c r="B27" s="34" t="n"/>
-      <c r="C27" s="34" t="inlineStr">
-        <is>
-          <t>b1008204-</t>
-        </is>
-      </c>
-      <c r="D27" s="34" t="inlineStr">
-        <is>
-          <t>B2010370-</t>
-        </is>
-      </c>
-      <c r="E27" s="34" t="inlineStr">
-        <is>
-          <t>B2011320-</t>
-        </is>
-      </c>
-      <c r="F27" s="34" t="inlineStr">
-        <is>
-          <t>B2011229-</t>
-        </is>
-      </c>
-      <c r="G27" s="34" t="inlineStr">
-        <is>
-          <t>B1004629-</t>
-        </is>
-      </c>
-      <c r="H27" s="34" t="inlineStr">
-        <is>
-          <t>B2011387-</t>
-        </is>
-      </c>
-      <c r="I27" s="34" t="inlineStr">
-        <is>
-          <t>P1226853-</t>
-        </is>
-      </c>
-      <c r="J27" s="34" t="inlineStr">
-        <is>
-          <t>B2000323-</t>
-        </is>
-      </c>
-      <c r="K27" s="34" t="inlineStr">
-        <is>
-          <t>T2000270-</t>
-        </is>
-      </c>
-      <c r="L27" s="34" t="inlineStr">
-        <is>
-          <t>M1011162-</t>
-        </is>
-      </c>
-      <c r="M27" s="34" t="inlineStr">
-        <is>
-          <t>E1000156-</t>
-        </is>
-      </c>
-      <c r="N27" s="34" t="inlineStr">
-        <is>
-          <t>B1009278-</t>
-        </is>
-      </c>
-      <c r="O27" s="34" t="inlineStr">
-        <is>
-          <t>m1002563-</t>
-        </is>
-      </c>
-      <c r="P27" s="34" t="inlineStr">
-        <is>
-          <t>b2010158-</t>
-        </is>
-      </c>
-      <c r="Q27" s="34" t="inlineStr">
-        <is>
-          <t>b2010772-</t>
-        </is>
-      </c>
-      <c r="R27" s="34" t="inlineStr">
-        <is>
-          <t>b1005706-</t>
-        </is>
-      </c>
-      <c r="S27" s="34" t="inlineStr">
-        <is>
-          <t>b1007255-</t>
-        </is>
-      </c>
-      <c r="T27" s="34" t="inlineStr">
-        <is>
-          <t>b2010563-</t>
-        </is>
-      </c>
-      <c r="U27" s="34" t="inlineStr">
-        <is>
-          <t>B2011003-</t>
-        </is>
-      </c>
-      <c r="V27" s="34" t="inlineStr">
-        <is>
-          <t>P1223649-</t>
-        </is>
-      </c>
-      <c r="W27" s="34" t="inlineStr">
-        <is>
-          <t>B2010892-</t>
-        </is>
-      </c>
-      <c r="X27" s="34" t="inlineStr">
-        <is>
-          <t>T2001017-</t>
-        </is>
-      </c>
-      <c r="Y27" s="34" t="inlineStr">
-        <is>
-          <t>B2010479-</t>
-        </is>
-      </c>
-      <c r="Z27" s="34" t="inlineStr">
-        <is>
-          <t>T2002355-</t>
-        </is>
-      </c>
-      <c r="AA27" s="34" t="inlineStr">
-        <is>
-          <t>b1005052-</t>
-        </is>
-      </c>
-      <c r="AB27" s="34" t="inlineStr">
-        <is>
-          <t>b1004876-</t>
-        </is>
-      </c>
-      <c r="AC27" s="34" t="inlineStr">
-        <is>
-          <t>B1007227-</t>
-        </is>
-      </c>
-      <c r="AD27" s="34" t="inlineStr">
-        <is>
-          <t>P1229998-</t>
+      <c r="A27" s="30" t="n"/>
+      <c r="B27" s="32" t="n"/>
+      <c r="C27" s="32" t="inlineStr">
+        <is>
+          <t>B2011234-</t>
+        </is>
+      </c>
+      <c r="D27" s="32" t="inlineStr">
+        <is>
+          <t>B1009084-</t>
+        </is>
+      </c>
+      <c r="E27" s="32" t="inlineStr">
+        <is>
+          <t>B2011206-</t>
+        </is>
+      </c>
+      <c r="F27" s="32" t="inlineStr">
+        <is>
+          <t>T2003400-</t>
+        </is>
+      </c>
+      <c r="G27" s="32" t="inlineStr">
+        <is>
+          <t>B2011078-</t>
+        </is>
+      </c>
+      <c r="H27" s="32" t="inlineStr">
+        <is>
+          <t>B2012237-</t>
+        </is>
+      </c>
+      <c r="I27" s="32" t="inlineStr">
+        <is>
+          <t>b1007836-</t>
+        </is>
+      </c>
+      <c r="J27" s="32" t="inlineStr">
+        <is>
+          <t>t2002997-</t>
+        </is>
+      </c>
+      <c r="K27" s="32" t="inlineStr">
+        <is>
+          <t>T2003129-</t>
+        </is>
+      </c>
+      <c r="L27" s="32" t="inlineStr">
+        <is>
+          <t>B2010531-</t>
+        </is>
+      </c>
+      <c r="M27" s="32" t="inlineStr">
+        <is>
+          <t>B2010005-</t>
+        </is>
+      </c>
+      <c r="N27" s="32" t="inlineStr">
+        <is>
+          <t>B2011073-</t>
+        </is>
+      </c>
+      <c r="O27" s="32" t="inlineStr">
+        <is>
+          <t>b2000059-</t>
+        </is>
+      </c>
+      <c r="P27" s="32" t="inlineStr">
+        <is>
+          <t>B2000356-</t>
+        </is>
+      </c>
+      <c r="Q27" s="32" t="inlineStr">
+        <is>
+          <t>B1000148-</t>
+        </is>
+      </c>
+      <c r="R27" s="32" t="inlineStr">
+        <is>
+          <t>B2000655-</t>
+        </is>
+      </c>
+      <c r="S27" s="32" t="inlineStr">
+        <is>
+          <t>B1008828-</t>
+        </is>
+      </c>
+      <c r="T27" s="32" t="inlineStr">
+        <is>
+          <t>T2002332-</t>
+        </is>
+      </c>
+      <c r="U27" s="32" t="inlineStr">
+        <is>
+          <t>p1222373-</t>
+        </is>
+      </c>
+      <c r="V27" s="32" t="inlineStr">
+        <is>
+          <t>B1004635-</t>
+        </is>
+      </c>
+      <c r="W27" s="32" t="inlineStr">
+        <is>
+          <t>B2000392-</t>
+        </is>
+      </c>
+      <c r="X27" s="32" t="inlineStr">
+        <is>
+          <t>B2011327-</t>
+        </is>
+      </c>
+      <c r="Y27" s="32" t="inlineStr">
+        <is>
+          <t>B2000425-</t>
+        </is>
+      </c>
+      <c r="Z27" s="32" t="inlineStr">
+        <is>
+          <t>B2000567-</t>
+        </is>
+      </c>
+      <c r="AA27" s="32" t="inlineStr">
+        <is>
+          <t>B2010504-</t>
+        </is>
+      </c>
+      <c r="AB27" s="32" t="inlineStr">
+        <is>
+          <t>T1001089-</t>
+        </is>
+      </c>
+      <c r="AC27" s="32" t="inlineStr">
+        <is>
+          <t>B2012271-</t>
+        </is>
+      </c>
+      <c r="AD27" s="32" t="inlineStr">
+        <is>
+          <t>X1000146-</t>
         </is>
       </c>
     </row>
@@ -4428,286 +4481,286 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>04272B</t>
+          <t>04021B</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>04271B</t>
+          <t>04022B</t>
         </is>
       </c>
       <c r="E28" s="11" t="inlineStr">
         <is>
-          <t>04252B</t>
+          <t>04041B</t>
         </is>
       </c>
       <c r="F28" s="11" t="inlineStr">
         <is>
-          <t>04251B</t>
+          <t>04042B</t>
         </is>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
-          <t>04232B</t>
+          <t>04061B</t>
         </is>
       </c>
       <c r="H28" s="11" t="inlineStr">
         <is>
-          <t>04231B</t>
+          <t>04062B</t>
         </is>
       </c>
       <c r="I28" s="11" t="inlineStr">
         <is>
-          <t>04212B</t>
+          <t>04081B</t>
         </is>
       </c>
       <c r="J28" s="11" t="inlineStr">
         <is>
-          <t>04211B</t>
+          <t>04082B</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr">
         <is>
-          <t>04192B</t>
+          <t>04101B</t>
         </is>
       </c>
       <c r="L28" s="11" t="inlineStr">
         <is>
-          <t>04191B</t>
+          <t>04102B</t>
         </is>
       </c>
       <c r="M28" s="11" t="inlineStr">
         <is>
-          <t>04172B</t>
+          <t>04121B</t>
         </is>
       </c>
       <c r="N28" s="11" t="inlineStr">
         <is>
-          <t>04171B</t>
+          <t>04122B</t>
         </is>
       </c>
       <c r="O28" s="11" t="inlineStr">
         <is>
-          <t>04152B</t>
+          <t>04141B</t>
         </is>
       </c>
       <c r="P28" s="11" t="inlineStr">
         <is>
-          <t>04151B</t>
+          <t>04142B</t>
         </is>
       </c>
       <c r="Q28" s="11" t="inlineStr">
         <is>
-          <t>04132B</t>
+          <t>04161B</t>
         </is>
       </c>
       <c r="R28" s="11" t="inlineStr">
         <is>
-          <t>04131B</t>
+          <t>04162B</t>
         </is>
       </c>
       <c r="S28" s="11" t="inlineStr">
         <is>
-          <t>04112B</t>
+          <t>04181B</t>
         </is>
       </c>
       <c r="T28" s="11" t="inlineStr">
         <is>
-          <t>04111B</t>
+          <t>04182B</t>
         </is>
       </c>
       <c r="U28" s="11" t="inlineStr">
         <is>
-          <t>04092B</t>
+          <t>04201B</t>
         </is>
       </c>
       <c r="V28" s="11" t="inlineStr">
         <is>
-          <t>04091B</t>
+          <t>04202B</t>
         </is>
       </c>
       <c r="W28" s="11" t="inlineStr">
         <is>
-          <t>04072B</t>
+          <t>04221B</t>
         </is>
       </c>
       <c r="X28" s="11" t="inlineStr">
         <is>
-          <t>04071B</t>
+          <t>04222B</t>
         </is>
       </c>
       <c r="Y28" s="11" t="inlineStr">
         <is>
-          <t>04052B</t>
+          <t>04241B</t>
         </is>
       </c>
       <c r="Z28" s="11" t="inlineStr">
         <is>
-          <t>04051B</t>
+          <t>04242B</t>
         </is>
       </c>
       <c r="AA28" s="11" t="inlineStr">
         <is>
-          <t>04032B</t>
+          <t>04261B</t>
         </is>
       </c>
       <c r="AB28" s="11" t="inlineStr">
         <is>
-          <t>04031B</t>
+          <t>04262B</t>
         </is>
       </c>
       <c r="AC28" s="11" t="inlineStr">
         <is>
-          <t>04012B</t>
+          <t>04281B</t>
         </is>
       </c>
       <c r="AD28" s="11" t="inlineStr">
         <is>
-          <t>04011B</t>
+          <t>04282B</t>
         </is>
       </c>
     </row>
     <row r="29" ht="35" customHeight="1">
-      <c r="A29" s="32" t="n"/>
-      <c r="B29" s="34" t="n"/>
-      <c r="C29" s="34" t="inlineStr">
-        <is>
-          <t>t2001282-</t>
-        </is>
-      </c>
-      <c r="D29" s="34" t="inlineStr">
-        <is>
-          <t>B1008585-</t>
-        </is>
-      </c>
-      <c r="E29" s="34" t="inlineStr">
-        <is>
-          <t>b2011126-</t>
-        </is>
-      </c>
-      <c r="F29" s="34" t="inlineStr">
-        <is>
-          <t>T1001304-</t>
-        </is>
-      </c>
-      <c r="G29" s="34" t="inlineStr">
-        <is>
-          <t>B1005485-</t>
-        </is>
-      </c>
-      <c r="H29" s="34" t="inlineStr">
-        <is>
-          <t>B1006202-</t>
-        </is>
-      </c>
-      <c r="I29" s="34" t="inlineStr">
-        <is>
-          <t>B1007966-</t>
-        </is>
-      </c>
-      <c r="J29" s="34" t="inlineStr">
-        <is>
-          <t>T1000519-</t>
-        </is>
-      </c>
-      <c r="K29" s="34" t="inlineStr">
-        <is>
-          <t>B1008561-</t>
-        </is>
-      </c>
-      <c r="L29" s="34" t="inlineStr">
-        <is>
-          <t>T1000049-</t>
-        </is>
-      </c>
-      <c r="M29" s="34" t="inlineStr">
-        <is>
-          <t>B2010303-</t>
-        </is>
-      </c>
-      <c r="N29" s="34" t="inlineStr">
-        <is>
-          <t>B2010140-</t>
-        </is>
-      </c>
-      <c r="O29" s="34" t="inlineStr">
-        <is>
-          <t>b1008159-</t>
-        </is>
-      </c>
-      <c r="P29" s="34" t="inlineStr">
-        <is>
-          <t>p1227554-</t>
-        </is>
-      </c>
-      <c r="Q29" s="34" t="inlineStr">
-        <is>
-          <t>B1006736-</t>
-        </is>
-      </c>
-      <c r="R29" s="34" t="inlineStr">
-        <is>
-          <t>B1006131-</t>
-        </is>
-      </c>
-      <c r="S29" s="34" t="inlineStr">
-        <is>
-          <t>t2000222-</t>
-        </is>
-      </c>
-      <c r="T29" s="34" t="inlineStr">
-        <is>
-          <t>B2000179-</t>
-        </is>
-      </c>
-      <c r="U29" s="34" t="inlineStr">
-        <is>
-          <t>B1008839-</t>
-        </is>
-      </c>
-      <c r="V29" s="34" t="inlineStr">
-        <is>
-          <t>B1007777-</t>
-        </is>
-      </c>
-      <c r="W29" s="34" t="inlineStr">
-        <is>
-          <t>b1008834-</t>
-        </is>
-      </c>
-      <c r="X29" s="34" t="inlineStr">
-        <is>
-          <t>B2010628-</t>
-        </is>
-      </c>
-      <c r="Y29" s="34" t="inlineStr">
-        <is>
-          <t>b1007261-</t>
-        </is>
-      </c>
-      <c r="Z29" s="34" t="inlineStr">
-        <is>
-          <t>B1004502-</t>
-        </is>
-      </c>
-      <c r="AA29" s="34" t="inlineStr">
-        <is>
-          <t>B2011115-</t>
-        </is>
-      </c>
-      <c r="AB29" s="34" t="inlineStr">
-        <is>
-          <t>B2009990-</t>
-        </is>
-      </c>
-      <c r="AC29" s="34" t="inlineStr">
-        <is>
-          <t>B1009106-</t>
-        </is>
-      </c>
-      <c r="AD29" s="34" t="inlineStr">
-        <is>
-          <t>B1007926-</t>
+      <c r="A29" s="30" t="n"/>
+      <c r="B29" s="32" t="n"/>
+      <c r="C29" s="32" t="inlineStr">
+        <is>
+          <t>b1008606-</t>
+        </is>
+      </c>
+      <c r="D29" s="32" t="inlineStr">
+        <is>
+          <t>b1004786-</t>
+        </is>
+      </c>
+      <c r="E29" s="32" t="inlineStr">
+        <is>
+          <t>B1009051-</t>
+        </is>
+      </c>
+      <c r="F29" s="32" t="inlineStr">
+        <is>
+          <t>B2000027-</t>
+        </is>
+      </c>
+      <c r="G29" s="32" t="inlineStr">
+        <is>
+          <t>t2001146-</t>
+        </is>
+      </c>
+      <c r="H29" s="32" t="inlineStr">
+        <is>
+          <t>M1016781-</t>
+        </is>
+      </c>
+      <c r="I29" s="32" t="inlineStr">
+        <is>
+          <t>b1008800-</t>
+        </is>
+      </c>
+      <c r="J29" s="32" t="inlineStr">
+        <is>
+          <t>b1006773-</t>
+        </is>
+      </c>
+      <c r="K29" s="32" t="inlineStr">
+        <is>
+          <t>b1008913-</t>
+        </is>
+      </c>
+      <c r="L29" s="32" t="inlineStr">
+        <is>
+          <t>T2003389-</t>
+        </is>
+      </c>
+      <c r="M29" s="32" t="inlineStr">
+        <is>
+          <t>b2011082-</t>
+        </is>
+      </c>
+      <c r="N29" s="32" t="inlineStr">
+        <is>
+          <t>b1008183-</t>
+        </is>
+      </c>
+      <c r="O29" s="32" t="inlineStr">
+        <is>
+          <t>b2010667-</t>
+        </is>
+      </c>
+      <c r="P29" s="32" t="inlineStr">
+        <is>
+          <t>T2001558-</t>
+        </is>
+      </c>
+      <c r="Q29" s="32" t="inlineStr">
+        <is>
+          <t>B2010000-</t>
+        </is>
+      </c>
+      <c r="R29" s="32" t="inlineStr">
+        <is>
+          <t>T2001699-</t>
+        </is>
+      </c>
+      <c r="S29" s="32" t="inlineStr">
+        <is>
+          <t>b1005949-</t>
+        </is>
+      </c>
+      <c r="T29" s="32" t="inlineStr">
+        <is>
+          <t>B1009070-</t>
+        </is>
+      </c>
+      <c r="U29" s="32" t="inlineStr">
+        <is>
+          <t>b2009983-</t>
+        </is>
+      </c>
+      <c r="V29" s="32" t="inlineStr">
+        <is>
+          <t>m1013277-</t>
+        </is>
+      </c>
+      <c r="W29" s="32" t="inlineStr">
+        <is>
+          <t>B2012218-</t>
+        </is>
+      </c>
+      <c r="X29" s="32" t="inlineStr">
+        <is>
+          <t>T2001403-</t>
+        </is>
+      </c>
+      <c r="Y29" s="32" t="inlineStr">
+        <is>
+          <t>B1005035-</t>
+        </is>
+      </c>
+      <c r="Z29" s="32" t="inlineStr">
+        <is>
+          <t>B1008223-</t>
+        </is>
+      </c>
+      <c r="AA29" s="32" t="inlineStr">
+        <is>
+          <t>B2011490-</t>
+        </is>
+      </c>
+      <c r="AB29" s="32" t="inlineStr">
+        <is>
+          <t>B1007225-</t>
+        </is>
+      </c>
+      <c r="AC29" s="32" t="inlineStr">
+        <is>
+          <t>B1009050-</t>
+        </is>
+      </c>
+      <c r="AD29" s="32" t="inlineStr">
+        <is>
+          <t>B2011193-</t>
         </is>
       </c>
     </row>
@@ -4720,267 +4773,286 @@
       </c>
       <c r="C30" s="20" t="inlineStr">
         <is>
-          <t>04272A</t>
+          <t>04021A</t>
         </is>
       </c>
       <c r="D30" s="20" t="inlineStr">
         <is>
-          <t>04271A</t>
+          <t>04022A</t>
         </is>
       </c>
       <c r="E30" s="20" t="inlineStr">
         <is>
-          <t>04252A</t>
+          <t>04041A</t>
         </is>
       </c>
       <c r="F30" s="20" t="inlineStr">
         <is>
-          <t>04251A</t>
+          <t>04042A</t>
         </is>
       </c>
       <c r="G30" s="20" t="inlineStr">
         <is>
-          <t>04232A</t>
+          <t>04061A</t>
         </is>
       </c>
       <c r="H30" s="20" t="inlineStr">
         <is>
-          <t>04231A</t>
+          <t>04062A</t>
         </is>
       </c>
       <c r="I30" s="20" t="inlineStr">
         <is>
-          <t>04212A</t>
+          <t>04081A</t>
         </is>
       </c>
       <c r="J30" s="20" t="inlineStr">
         <is>
-          <t>04211A</t>
+          <t>04082A</t>
         </is>
       </c>
       <c r="K30" s="20" t="inlineStr">
         <is>
-          <t>04192A</t>
+          <t>04101A</t>
         </is>
       </c>
       <c r="L30" s="20" t="inlineStr">
         <is>
-          <t>04191A</t>
+          <t>04102A</t>
         </is>
       </c>
       <c r="M30" s="20" t="inlineStr">
         <is>
-          <t>04172A</t>
+          <t>04121A</t>
         </is>
       </c>
       <c r="N30" s="20" t="inlineStr">
         <is>
-          <t>04171A</t>
+          <t>04122A</t>
         </is>
       </c>
       <c r="O30" s="20" t="inlineStr">
         <is>
-          <t>04152A</t>
+          <t>04141A</t>
         </is>
       </c>
       <c r="P30" s="20" t="inlineStr">
         <is>
-          <t>04151A</t>
+          <t>04142A</t>
         </is>
       </c>
       <c r="Q30" s="20" t="inlineStr">
         <is>
-          <t>04132A</t>
+          <t>04161A</t>
         </is>
       </c>
       <c r="R30" s="20" t="inlineStr">
         <is>
-          <t>04131A</t>
+          <t>04162A</t>
         </is>
       </c>
       <c r="S30" s="20" t="inlineStr">
         <is>
-          <t>04112A</t>
+          <t>04181A</t>
         </is>
       </c>
       <c r="T30" s="20" t="inlineStr">
         <is>
-          <t>04111A</t>
+          <t>04182A</t>
         </is>
       </c>
       <c r="U30" s="20" t="inlineStr">
         <is>
-          <t>04092A</t>
+          <t>04201A</t>
         </is>
       </c>
       <c r="V30" s="20" t="inlineStr">
         <is>
-          <t>04091A</t>
+          <t>04202A</t>
         </is>
       </c>
       <c r="W30" s="20" t="inlineStr">
         <is>
-          <t>04072A</t>
+          <t>04221A</t>
         </is>
       </c>
       <c r="X30" s="20" t="inlineStr">
         <is>
-          <t>04071A</t>
+          <t>04222A</t>
         </is>
       </c>
       <c r="Y30" s="20" t="inlineStr">
         <is>
-          <t>04052A</t>
+          <t>04241A</t>
         </is>
       </c>
       <c r="Z30" s="20" t="inlineStr">
         <is>
-          <t>04051A</t>
+          <t>04242A</t>
         </is>
       </c>
       <c r="AA30" s="20" t="inlineStr">
         <is>
-          <t>04032A</t>
+          <t>04261A</t>
         </is>
       </c>
       <c r="AB30" s="20" t="inlineStr">
         <is>
-          <t>04031A</t>
+          <t>04262A</t>
         </is>
       </c>
       <c r="AC30" s="20" t="inlineStr">
         <is>
-          <t>04012A</t>
+          <t>04281A</t>
         </is>
       </c>
       <c r="AD30" s="20" t="inlineStr">
         <is>
-          <t>04011A</t>
+          <t>04282A</t>
         </is>
       </c>
     </row>
     <row r="31" ht="35" customHeight="1">
-      <c r="A31" s="36" t="n"/>
-      <c r="B31" s="34" t="n"/>
-      <c r="C31" s="33" t="inlineStr">
-        <is>
-          <t>M1016819-</t>
-        </is>
-      </c>
-      <c r="D31" s="33" t="inlineStr">
-        <is>
-          <t>b2010378-</t>
-        </is>
-      </c>
-      <c r="E31" s="33" t="inlineStr">
-        <is>
-          <t>B2010078-</t>
-        </is>
-      </c>
-      <c r="F31" s="33" t="inlineStr">
-        <is>
-          <t>P1222076-</t>
-        </is>
-      </c>
-      <c r="G31" s="33" t="inlineStr">
-        <is>
-          <t>B2010068-</t>
-        </is>
-      </c>
-      <c r="H31" s="33" t="inlineStr">
-        <is>
-          <t>B1009122-</t>
-        </is>
-      </c>
-      <c r="I31" s="33" t="inlineStr">
-        <is>
-          <t>B2000153-</t>
-        </is>
-      </c>
-      <c r="J31" s="33" t="inlineStr">
-        <is>
-          <t>B1004257-</t>
-        </is>
-      </c>
-      <c r="K31" s="33" t="inlineStr">
-        <is>
-          <t>W2000112-</t>
-        </is>
-      </c>
-      <c r="L31" s="33" t="inlineStr">
-        <is>
-          <t>B2011309-</t>
-        </is>
-      </c>
-      <c r="M31" s="33" t="n"/>
-      <c r="N31" s="33" t="inlineStr">
-        <is>
-          <t>B2011076-</t>
-        </is>
-      </c>
-      <c r="O31" s="33" t="n"/>
-      <c r="P31" s="33" t="inlineStr">
-        <is>
-          <t>B2011298-</t>
-        </is>
-      </c>
-      <c r="Q31" s="33" t="n"/>
-      <c r="R31" s="33" t="inlineStr">
-        <is>
-          <t>B2010561-</t>
-        </is>
-      </c>
-      <c r="S31" s="37" t="inlineStr">
-        <is>
-          <t>B2011307-
-M1011014-</t>
-        </is>
-      </c>
-      <c r="T31" s="33" t="n"/>
-      <c r="U31" s="33" t="inlineStr">
-        <is>
-          <t>b1007771-</t>
-        </is>
-      </c>
-      <c r="V31" s="33" t="inlineStr">
-        <is>
-          <t>B1007944-</t>
-        </is>
-      </c>
-      <c r="W31" s="33" t="inlineStr">
-        <is>
-          <t>B1008298-</t>
-        </is>
-      </c>
-      <c r="X31" s="33" t="inlineStr">
-        <is>
-          <t>B2010826-</t>
-        </is>
-      </c>
-      <c r="Y31" s="33" t="inlineStr">
-        <is>
-          <t>B1000232-</t>
-        </is>
-      </c>
-      <c r="Z31" s="33" t="n"/>
-      <c r="AA31" s="33" t="inlineStr">
-        <is>
-          <t>B1000166-</t>
-        </is>
-      </c>
-      <c r="AB31" s="33" t="inlineStr">
-        <is>
-          <t>p1207031-</t>
-        </is>
-      </c>
-      <c r="AC31" s="33" t="inlineStr">
-        <is>
-          <t>B2011202-</t>
-        </is>
-      </c>
-      <c r="AD31" s="33" t="inlineStr">
-        <is>
-          <t>B2011302-</t>
+      <c r="A31" s="33" t="n"/>
+      <c r="B31" s="32" t="n"/>
+      <c r="C31" s="31" t="inlineStr">
+        <is>
+          <t>P1226296-</t>
+        </is>
+      </c>
+      <c r="D31" s="31" t="inlineStr">
+        <is>
+          <t>b1007794-</t>
+        </is>
+      </c>
+      <c r="E31" s="31" t="inlineStr">
+        <is>
+          <t>T2002845-</t>
+        </is>
+      </c>
+      <c r="F31" s="31" t="inlineStr">
+        <is>
+          <t>B1006248-</t>
+        </is>
+      </c>
+      <c r="G31" s="31" t="inlineStr">
+        <is>
+          <t>B2011318-</t>
+        </is>
+      </c>
+      <c r="H31" s="31" t="inlineStr">
+        <is>
+          <t>B2010583-</t>
+        </is>
+      </c>
+      <c r="I31" s="31" t="inlineStr">
+        <is>
+          <t>B2000131-</t>
+        </is>
+      </c>
+      <c r="J31" s="31" t="inlineStr">
+        <is>
+          <t>B2010611-</t>
+        </is>
+      </c>
+      <c r="K31" s="31" t="inlineStr">
+        <is>
+          <t>b1001246-</t>
+        </is>
+      </c>
+      <c r="L31" s="31" t="inlineStr">
+        <is>
+          <t>B2000988-</t>
+        </is>
+      </c>
+      <c r="M31" s="31" t="inlineStr">
+        <is>
+          <t>B2000161-</t>
+        </is>
+      </c>
+      <c r="N31" s="31" t="inlineStr">
+        <is>
+          <t>M1015649-</t>
+        </is>
+      </c>
+      <c r="O31" s="31" t="inlineStr">
+        <is>
+          <t>X1000205-</t>
+        </is>
+      </c>
+      <c r="P31" s="31" t="inlineStr">
+        <is>
+          <t>m1017737-</t>
+        </is>
+      </c>
+      <c r="Q31" s="31" t="inlineStr">
+        <is>
+          <t>b1005608-</t>
+        </is>
+      </c>
+      <c r="R31" s="31" t="inlineStr">
+        <is>
+          <t>t2001654-</t>
+        </is>
+      </c>
+      <c r="S31" s="31" t="inlineStr">
+        <is>
+          <t>B2011313-</t>
+        </is>
+      </c>
+      <c r="T31" s="31" t="inlineStr">
+        <is>
+          <t>b1007402-</t>
+        </is>
+      </c>
+      <c r="U31" s="31" t="inlineStr">
+        <is>
+          <t>B2011278-</t>
+        </is>
+      </c>
+      <c r="V31" s="31" t="inlineStr">
+        <is>
+          <t>b1007840-</t>
+        </is>
+      </c>
+      <c r="W31" s="31" t="inlineStr">
+        <is>
+          <t>B1006367-</t>
+        </is>
+      </c>
+      <c r="X31" s="31" t="inlineStr">
+        <is>
+          <t>b2010771-</t>
+        </is>
+      </c>
+      <c r="Y31" s="31" t="inlineStr">
+        <is>
+          <t>T2002991-</t>
+        </is>
+      </c>
+      <c r="Z31" s="31" t="inlineStr">
+        <is>
+          <t>B2010645-</t>
+        </is>
+      </c>
+      <c r="AA31" s="31" t="inlineStr">
+        <is>
+          <t>P1234071-</t>
+        </is>
+      </c>
+      <c r="AB31" s="31" t="inlineStr">
+        <is>
+          <t>B2000156-</t>
+        </is>
+      </c>
+      <c r="AC31" s="31" t="inlineStr">
+        <is>
+          <t>B1008235-</t>
+        </is>
+      </c>
+      <c r="AD31" s="31" t="inlineStr">
+        <is>
+          <t>T2000269-</t>
         </is>
       </c>
     </row>
